--- a/1_Data_Crawling/Digital_Transformation/SSG_Before_DT.xlsx
+++ b/1_Data_Crawling/Digital_Transformation/SSG_Before_DT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukaid\Documents\NLP_Review_Classifier\1. Data Crawling\Digital_Transformation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukaid\Documents\NLP_Review_Classifier\1_Data_Crawling\Digital_Transformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCA85E67-BDB7-44DC-A02E-4C5B2D441059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2EB652A-B918-41E7-BB8E-B21352ABA4B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4B017A53-0CE8-4E2E-8883-27BD8707C9D4}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="15225" windowHeight="11385" xr2:uid="{4B017A53-0CE8-4E2E-8883-27BD8707C9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2048,10 +2048,6 @@
     <t>태블릿 현대카드페이샷결제가 안되네요 갤럭시탭이고 다른 사이트에서는 됩니다</t>
   </si>
   <si>
-    <t>사력을 다해서 만들었다는 어플이 어찌 쿠팡보다 못합니까
-리뷰쓰고 별명 작성하는것마저 짜증나게 만들어서 한줄 더 남깁니다</t>
-  </si>
-  <si>
     <t>어설픈 신세계</t>
   </si>
   <si>
@@ -2458,11 +2454,6 @@
 볼때마다 가분나뻐</t>
   </si>
   <si>
-    <t>제가 제돈 내고 욕먹어야 하나요;;
-“왜 배달을 시키냐 씨발년”
-이러시면서 가시네요. 서비스 대단합니다.</t>
-  </si>
-  <si>
     <t>쓱 페이 말고도 좀 더 간편하게 만들 수 있지 않았을까 싶네요.</t>
   </si>
   <si>
@@ -2601,11 +2592,6 @@
     <t>좀어렵네여</t>
   </si>
   <si>
-    <t>앱이 자꾸 꺼져요 그냥 뚝.. 꺼져버려요
-그리고 솔팅이 다 단순해져버려서 쇼핑이
-불편해졌어요 아기옷 사는데 최소한의 남아/여아 조차</t>
-  </si>
-  <si>
     <t>저같은 귀차니스트들에게 추쳔!
 여러곳 들를 필요없이 믿고 씁니다 ^^</t>
   </si>
@@ -2630,11 +2616,6 @@
   <si>
     <t>매주 일요일 저녁 쓱 주문하면
 월요일 저녁 ㅆ 배달</t>
-  </si>
-  <si>
-    <t>마음깊이 품었던 카메라를 소장하게되었네요
-저렴하게 구입할 수 있어서 감사드립니다
-잘쓰겠습니다.</t>
   </si>
   <si>
     <t>입고가 안되어서 많이 기다렸어요
@@ -3231,11 +3212,6 @@
     <t>너무 너무 좋아요 슥닷컴 짱</t>
   </si>
   <si>
-    <t>카드번호는 한 번 입력하면
-저장 되어 있으면 좋갰어요
-매번 카드번호 확인하려면 귀챦거나 촉박해서 스킵하는 경우가 대부분이네요</t>
-  </si>
-  <si>
     <t>백화점에서 살 수 있는 제품들을 조금 저렴하게 살 수 있어 좋아요^^</t>
   </si>
   <si>
@@ -3380,17 +3356,7 @@
     <t>지인의 추천으로 인해 처음으로 새벽 배송 이용하게 됐네요.. 바로 다음날 새벽 6시에 배송된다니 기대되요..</t>
   </si>
   <si>
-    <t>유기농 상품만 검색
-(검색시 일반 상품과 가격비교 &gt; 바로 갈 수 있게 링크)
-삼계탕용 닭 검색 &gt; 토종닭 1개만 나옴
-: 비슷한 상품 3개 이상 준비되어야 선택용이</t>
-  </si>
-  <si>
     <t>언제나 좋은 가격으로 구매해서 자주 이용합니다</t>
-  </si>
-  <si>
-    <t>내가 뭘 샀는지 기억해 주고. 어떤갈 다주 샀는지 알아봐 주고. 그리고 원하는 시간에. 당일 배송까지.
-세상을 똑똑히 살아가는 방법을 터득 시켜 주는 너무 친절한 쓱.</t>
   </si>
   <si>
     <t>진짜 편리하고 너무 좋아요.</t>
@@ -3451,10 +3417,6 @@
     <t>편리</t>
   </si>
   <si>
-    <t>처음 사용한 슥 페이^^
-간편하고 좋아요</t>
-  </si>
-  <si>
     <t>싸고 넘 좋아요</t>
   </si>
   <si>
@@ -3806,10 +3768,6 @@
     <t>간편한 결제 최고~~짱~</t>
   </si>
   <si>
-    <t>요즘 이마트몰 장보기에 빠져 살고 있습니다.^^
-물건이 좋아 믿고 구매합니다.^^👍</t>
-  </si>
-  <si>
     <t>너무 편하구 좋아요. 자주 이용하구 있어요~</t>
   </si>
   <si>
@@ -3925,12 +3883,6 @@
     <t>굳이 백화점 안가도 좋은상품 도 할인해서 잘 구매하고 있어요 더 좋은상품 업그레이드해주세요!!</t>
   </si>
   <si>
-    <t>주문도 슥
-배송도 슥
-노브랜드 주문상품의 퀄리티도 만족스러운지
-지켜볼게요 ~~</t>
-  </si>
-  <si>
     <t>핸드폰 잠시만 다른화면창켰다가 들어가면 다 초기화되잇어서 쇼핑하기 짜증나네요</t>
   </si>
   <si>
@@ -4203,10 +4155,6 @@
     <t>뭐가 이리 어렵게 만들었는지..앱은 또 왜이렇게 잘팅기는지 모르겠는데 저만그런가요???ㅠㅠ</t>
   </si>
   <si>
-    <t>1.카뱅도 은행인데 추가좀 해주세요
-2. 구매 금액 11페이나 페이코 처럼 현금영수증 저장해서 자동으로 끊게좀 해줘요</t>
-  </si>
-  <si>
     <t>팝업도 많고. 검색도 잘 안됨. 느림.
 쓱 배송은 좋음. 그래서 애용함.</t>
   </si>
@@ -4228,11 +4176,6 @@
   <si>
     <t>최근 자꾸 에러 코드가 떠서 앱 지우고 다시 설치했는데
 ㅠㅠ 계속 그러네요 저만 그런건지;;</t>
-  </si>
-  <si>
-    <t>국내에 있는 백화점/마켓 온라인 몰 중에선
-서비스 품질이 압도적으로 좋다고 생각합니다.
-한 십여년 이용해 온 것 같은데</t>
   </si>
   <si>
     <t>첫쇼핑했어요..
@@ -4315,11 +4258,6 @@
     <t>주로 흰색 운동화를 좋아하는데 질리지않게 예쁘게 빤짝이 포인트를 준 신발을 신으니 기분이 다르네요. 은근한 화려함이 기분을 업시키네요. 끈에도 글자를 넣어서 심심하지않고 세련되게 신을수 있어서 더 좋네요~</t>
   </si>
   <si>
-    <t>쓱페이도 극혐...
-뭐 살려고 하면 인증을 뭐 그리 해야하는지...
-제발 아마존에서 한번만 결제해보고 반성해보길 바랍니다</t>
-  </si>
-  <si>
     <t>기록삭제부탁~~~</t>
   </si>
   <si>
@@ -4353,6 +4291,53 @@
   <si>
     <t>업데이트 이후 장바구니에서 계속 에러나네요
 수정해주세요</t>
+  </si>
+  <si>
+    <t>사력을 다해서 만들었다는 어플이 어찌 쿠팡보다 못합니까 리뷰쓰고 별명 작성하는것마저 짜증나게 만들어서 한줄 더 남깁니다</t>
+  </si>
+  <si>
+    <t>제가 제돈 내고 욕먹어야 하나요;;
+“왜 배달을 시키냐 씨발년” 이러시면서 가시네요. 서비스 대단합니다.</t>
+  </si>
+  <si>
+    <t>앱이 자꾸 꺼져요 그냥 뚝.. 꺼져버려요 그리고 솔팅이 다 단순해져버려서 쇼핑이
+불편해졌어요 아기옷 사는데 최소한의 남아/여아 조차</t>
+  </si>
+  <si>
+    <t>마음깊이 품었던 카메라를 소장하게되었네요 저렴하게 구입할 수 있어서 감사드립니다 잘쓰겠습니다.</t>
+  </si>
+  <si>
+    <t>카드번호는 한 번 입력하면
+저장 되어 있으면 좋갰어요 매번 카드번호 확인하려면 귀챦거나 촉박해서 스킵하는 경우가 대부분이네요</t>
+  </si>
+  <si>
+    <t>유기농 상품만 검색
+(검색시 일반 상품과 가격비교 &gt; 바로 갈 수 있게 링크) 삼계탕용 닭 검색 &gt; 토종닭 1개만 나옴
+: 비슷한 상품 3개 이상 준비되어야 선택용이</t>
+  </si>
+  <si>
+    <t>내가 뭘 샀는지 기억해 주고. 어떤갈 다주 샀는지 알아봐 주고. 그리고 원하는 시간에. 당일 배송까지. 세상을 똑똑히 살아가는 방법을 터득 시켜 주는 너무 친절한 쓱.</t>
+  </si>
+  <si>
+    <t>처음 사용한 슥 페이^^ 간편하고 좋아요</t>
+  </si>
+  <si>
+    <t>요즘 이마트몰 장보기에 빠져 살고 있습니다.^^ 물건이 좋아 믿고 구매합니다.^^👍</t>
+  </si>
+  <si>
+    <t>주문도 슥
+배송도 슥 노브랜드 주문상품의 퀄리티도 만족스러운지
+지켜볼게요 ~~</t>
+  </si>
+  <si>
+    <t>1.카뱅도 은행인데 추가좀 해주세요 2. 구매 금액 11페이나 페이코 처럼 현금영수증 저장해서 자동으로 끊게좀 해줘요</t>
+  </si>
+  <si>
+    <t>국내에 있는 백화점/마켓 온라인 몰 중에선
+서비스 품질이 압도적으로 좋다고 생각합니다. 한 십여년 이용해 온 것 같은데</t>
+  </si>
+  <si>
+    <t>쓱페이도 극혐... 뭐 살려고 하면 인증을 뭐 그리 해야하는지... 제발 아마존에서 한번만 결제해보고 반성해보길 바랍니다</t>
   </si>
 </sst>
 </file>
@@ -4725,7 +4710,7 @@
   <dimension ref="A1:C2566"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7015,7 +7000,7 @@
         <v>43507</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>659</v>
+        <v>1331</v>
       </c>
       <c r="C208">
         <v>1</v>
@@ -7037,7 +7022,7 @@
         <v>43506</v>
       </c>
       <c r="B210" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -7070,7 +7055,7 @@
         <v>43505</v>
       </c>
       <c r="B213" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C213">
         <v>5</v>
@@ -7081,7 +7066,7 @@
         <v>43505</v>
       </c>
       <c r="B214" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C214">
         <v>5</v>
@@ -7103,7 +7088,7 @@
         <v>43504</v>
       </c>
       <c r="B216" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="C216">
         <v>5</v>
@@ -7191,7 +7176,7 @@
         <v>43503</v>
       </c>
       <c r="B224" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C224">
         <v>5</v>
@@ -7202,7 +7187,7 @@
         <v>43503</v>
       </c>
       <c r="B225" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -7224,7 +7209,7 @@
         <v>43502</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C227">
         <v>5</v>
@@ -7235,7 +7220,7 @@
         <v>43502</v>
       </c>
       <c r="B228" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C228">
         <v>5</v>
@@ -7246,7 +7231,7 @@
         <v>43502</v>
       </c>
       <c r="B229" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C229">
         <v>4</v>
@@ -7268,7 +7253,7 @@
         <v>43501</v>
       </c>
       <c r="B231" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -7290,7 +7275,7 @@
         <v>43500</v>
       </c>
       <c r="B233" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C233">
         <v>5</v>
@@ -7301,7 +7286,7 @@
         <v>43499</v>
       </c>
       <c r="B234" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C234">
         <v>1</v>
@@ -7323,7 +7308,7 @@
         <v>43499</v>
       </c>
       <c r="B236" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -7334,7 +7319,7 @@
         <v>43498</v>
       </c>
       <c r="B237" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C237">
         <v>2</v>
@@ -7345,7 +7330,7 @@
         <v>43498</v>
       </c>
       <c r="B238" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C238">
         <v>2</v>
@@ -7367,7 +7352,7 @@
         <v>43497</v>
       </c>
       <c r="B240" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C240">
         <v>5</v>
@@ -7411,7 +7396,7 @@
         <v>43496</v>
       </c>
       <c r="B244" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C244">
         <v>5</v>
@@ -7455,7 +7440,7 @@
         <v>43495</v>
       </c>
       <c r="B248" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C248">
         <v>3</v>
@@ -7466,7 +7451,7 @@
         <v>43495</v>
       </c>
       <c r="B249" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C249">
         <v>3</v>
@@ -7477,7 +7462,7 @@
         <v>43495</v>
       </c>
       <c r="B250" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -7488,7 +7473,7 @@
         <v>43495</v>
       </c>
       <c r="B251" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C251">
         <v>3</v>
@@ -7499,7 +7484,7 @@
         <v>43495</v>
       </c>
       <c r="B252" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C252">
         <v>4</v>
@@ -7510,7 +7495,7 @@
         <v>43495</v>
       </c>
       <c r="B253" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C253">
         <v>5</v>
@@ -7565,7 +7550,7 @@
         <v>43493</v>
       </c>
       <c r="B258" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -7609,7 +7594,7 @@
         <v>43492</v>
       </c>
       <c r="B262" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C262">
         <v>3</v>
@@ -7620,7 +7605,7 @@
         <v>43492</v>
       </c>
       <c r="B263" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C263">
         <v>3</v>
@@ -7631,7 +7616,7 @@
         <v>43491</v>
       </c>
       <c r="B264" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C264">
         <v>5</v>
@@ -7642,7 +7627,7 @@
         <v>43491</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C265">
         <v>3</v>
@@ -7697,7 +7682,7 @@
         <v>43490</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -7730,7 +7715,7 @@
         <v>43489</v>
       </c>
       <c r="B273" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C273">
         <v>5</v>
@@ -7741,7 +7726,7 @@
         <v>43488</v>
       </c>
       <c r="B274" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C274">
         <v>5</v>
@@ -7752,7 +7737,7 @@
         <v>43488</v>
       </c>
       <c r="B275" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C275">
         <v>5</v>
@@ -7763,7 +7748,7 @@
         <v>43488</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -7774,7 +7759,7 @@
         <v>43488</v>
       </c>
       <c r="B277" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C277">
         <v>5</v>
@@ -7785,7 +7770,7 @@
         <v>43487</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C278">
         <v>5</v>
@@ -7796,7 +7781,7 @@
         <v>43487</v>
       </c>
       <c r="B279" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C279">
         <v>5</v>
@@ -7840,7 +7825,7 @@
         <v>43486</v>
       </c>
       <c r="B283" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C283">
         <v>5</v>
@@ -7873,7 +7858,7 @@
         <v>43484</v>
       </c>
       <c r="B286" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C286">
         <v>5</v>
@@ -7895,7 +7880,7 @@
         <v>43483</v>
       </c>
       <c r="B288" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C288">
         <v>1</v>
@@ -7906,7 +7891,7 @@
         <v>43482</v>
       </c>
       <c r="B289" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C289">
         <v>4</v>
@@ -7939,7 +7924,7 @@
         <v>43481</v>
       </c>
       <c r="B292" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C292">
         <v>5</v>
@@ -7950,7 +7935,7 @@
         <v>43481</v>
       </c>
       <c r="B293" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C293">
         <v>5</v>
@@ -7983,7 +7968,7 @@
         <v>43480</v>
       </c>
       <c r="B296" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C296">
         <v>5</v>
@@ -8005,7 +7990,7 @@
         <v>43479</v>
       </c>
       <c r="B298" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C298">
         <v>4</v>
@@ -8016,7 +8001,7 @@
         <v>43479</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C299">
         <v>3</v>
@@ -8049,7 +8034,7 @@
         <v>43478</v>
       </c>
       <c r="B302" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C302">
         <v>5</v>
@@ -8060,7 +8045,7 @@
         <v>43478</v>
       </c>
       <c r="B303" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C303">
         <v>2</v>
@@ -8093,7 +8078,7 @@
         <v>43477</v>
       </c>
       <c r="B306" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C306">
         <v>4</v>
@@ -8170,7 +8155,7 @@
         <v>43475</v>
       </c>
       <c r="B313" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="C313">
         <v>5</v>
@@ -8181,7 +8166,7 @@
         <v>43475</v>
       </c>
       <c r="B314" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="C314">
         <v>5</v>
@@ -8192,7 +8177,7 @@
         <v>43475</v>
       </c>
       <c r="B315" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C315">
         <v>5</v>
@@ -8203,7 +8188,7 @@
         <v>43474</v>
       </c>
       <c r="B316" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="C316">
         <v>5</v>
@@ -8225,7 +8210,7 @@
         <v>43473</v>
       </c>
       <c r="B318" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C318">
         <v>5</v>
@@ -8236,7 +8221,7 @@
         <v>43473</v>
       </c>
       <c r="B319" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C319">
         <v>5</v>
@@ -8247,7 +8232,7 @@
         <v>43473</v>
       </c>
       <c r="B320" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C320">
         <v>5</v>
@@ -8302,7 +8287,7 @@
         <v>43471</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="C325">
         <v>5</v>
@@ -8313,7 +8298,7 @@
         <v>43471</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C326">
         <v>4</v>
@@ -8368,7 +8353,7 @@
         <v>43470</v>
       </c>
       <c r="B331" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C331">
         <v>5</v>
@@ -8379,7 +8364,7 @@
         <v>43470</v>
       </c>
       <c r="B332" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C332">
         <v>5</v>
@@ -8401,7 +8386,7 @@
         <v>43469</v>
       </c>
       <c r="B334" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C334">
         <v>4</v>
@@ -8412,7 +8397,7 @@
         <v>43469</v>
       </c>
       <c r="B335" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C335">
         <v>5</v>
@@ -8478,7 +8463,7 @@
         <v>43466</v>
       </c>
       <c r="B341" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C341">
         <v>4</v>
@@ -8489,7 +8474,7 @@
         <v>43466</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C342">
         <v>5</v>
@@ -8500,7 +8485,7 @@
         <v>43466</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C343">
         <v>3</v>
@@ -8511,7 +8496,7 @@
         <v>43466</v>
       </c>
       <c r="B344" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C344">
         <v>1</v>
@@ -8522,7 +8507,7 @@
         <v>43466</v>
       </c>
       <c r="B345" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C345">
         <v>1</v>
@@ -8533,7 +8518,7 @@
         <v>43466</v>
       </c>
       <c r="B346" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C346">
         <v>4</v>
@@ -8544,7 +8529,7 @@
         <v>43466</v>
       </c>
       <c r="B347" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C347">
         <v>4</v>
@@ -8555,7 +8540,7 @@
         <v>43466</v>
       </c>
       <c r="B348" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C348">
         <v>5</v>
@@ -8566,7 +8551,7 @@
         <v>43466</v>
       </c>
       <c r="B349" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C349">
         <v>3</v>
@@ -8577,7 +8562,7 @@
         <v>43465</v>
       </c>
       <c r="B350" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C350">
         <v>5</v>
@@ -8588,7 +8573,7 @@
         <v>43464</v>
       </c>
       <c r="B351" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C351">
         <v>5</v>
@@ -8599,7 +8584,7 @@
         <v>43464</v>
       </c>
       <c r="B352" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C352">
         <v>3</v>
@@ -8610,7 +8595,7 @@
         <v>43462</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C353">
         <v>5</v>
@@ -8621,7 +8606,7 @@
         <v>43462</v>
       </c>
       <c r="B354" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C354">
         <v>5</v>
@@ -8632,7 +8617,7 @@
         <v>43461</v>
       </c>
       <c r="B355" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C355">
         <v>5</v>
@@ -8643,7 +8628,7 @@
         <v>43461</v>
       </c>
       <c r="B356" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C356">
         <v>5</v>
@@ -8654,7 +8639,7 @@
         <v>43461</v>
       </c>
       <c r="B357" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C357">
         <v>5</v>
@@ -8665,7 +8650,7 @@
         <v>43461</v>
       </c>
       <c r="B358" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C358">
         <v>5</v>
@@ -8676,7 +8661,7 @@
         <v>43460</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C359">
         <v>5</v>
@@ -8687,7 +8672,7 @@
         <v>43460</v>
       </c>
       <c r="B360" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C360">
         <v>5</v>
@@ -8698,7 +8683,7 @@
         <v>43460</v>
       </c>
       <c r="B361" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C361">
         <v>5</v>
@@ -8709,7 +8694,7 @@
         <v>43460</v>
       </c>
       <c r="B362" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C362">
         <v>5</v>
@@ -8720,7 +8705,7 @@
         <v>43460</v>
       </c>
       <c r="B363" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C363">
         <v>4</v>
@@ -8731,7 +8716,7 @@
         <v>43459</v>
       </c>
       <c r="B364" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C364">
         <v>5</v>
@@ -8753,7 +8738,7 @@
         <v>43458</v>
       </c>
       <c r="B366" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C366">
         <v>5</v>
@@ -8764,7 +8749,7 @@
         <v>43458</v>
       </c>
       <c r="B367" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C367">
         <v>5</v>
@@ -8775,7 +8760,7 @@
         <v>43458</v>
       </c>
       <c r="B368" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C368">
         <v>5</v>
@@ -8797,7 +8782,7 @@
         <v>43457</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C370">
         <v>5</v>
@@ -8808,7 +8793,7 @@
         <v>43457</v>
       </c>
       <c r="B371" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C371">
         <v>5</v>
@@ -8819,7 +8804,7 @@
         <v>43457</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C372">
         <v>5</v>
@@ -8830,7 +8815,7 @@
         <v>43457</v>
       </c>
       <c r="B373" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C373">
         <v>1</v>
@@ -8863,7 +8848,7 @@
         <v>43455</v>
       </c>
       <c r="B376" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C376">
         <v>1</v>
@@ -8874,7 +8859,7 @@
         <v>43455</v>
       </c>
       <c r="B377" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C377">
         <v>1</v>
@@ -8885,7 +8870,7 @@
         <v>43455</v>
       </c>
       <c r="B378" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="C378">
         <v>5</v>
@@ -8907,7 +8892,7 @@
         <v>43454</v>
       </c>
       <c r="B380" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C380">
         <v>5</v>
@@ -8918,7 +8903,7 @@
         <v>43454</v>
       </c>
       <c r="B381" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C381">
         <v>5</v>
@@ -8929,7 +8914,7 @@
         <v>43454</v>
       </c>
       <c r="B382" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C382">
         <v>4</v>
@@ -8940,7 +8925,7 @@
         <v>43454</v>
       </c>
       <c r="B383" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C383">
         <v>5</v>
@@ -9061,7 +9046,7 @@
         <v>43452</v>
       </c>
       <c r="B394" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C394">
         <v>1</v>
@@ -9072,7 +9057,7 @@
         <v>43452</v>
       </c>
       <c r="B395" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C395">
         <v>5</v>
@@ -9083,7 +9068,7 @@
         <v>43452</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C396">
         <v>5</v>
@@ -9094,7 +9079,7 @@
         <v>43452</v>
       </c>
       <c r="B397" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C397">
         <v>5</v>
@@ -9116,7 +9101,7 @@
         <v>43451</v>
       </c>
       <c r="B399" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C399">
         <v>3</v>
@@ -9127,7 +9112,7 @@
         <v>43451</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C400">
         <v>5</v>
@@ -9160,7 +9145,7 @@
         <v>43450</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C403">
         <v>5</v>
@@ -9171,7 +9156,7 @@
         <v>43450</v>
       </c>
       <c r="B404" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C404">
         <v>5</v>
@@ -9182,7 +9167,7 @@
         <v>43450</v>
       </c>
       <c r="B405" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C405">
         <v>5</v>
@@ -9193,7 +9178,7 @@
         <v>43450</v>
       </c>
       <c r="B406" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C406">
         <v>5</v>
@@ -9204,7 +9189,7 @@
         <v>43450</v>
       </c>
       <c r="B407" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C407">
         <v>5</v>
@@ -9215,7 +9200,7 @@
         <v>43450</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C408">
         <v>5</v>
@@ -9226,7 +9211,7 @@
         <v>43450</v>
       </c>
       <c r="B409" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C409">
         <v>5</v>
@@ -9248,7 +9233,7 @@
         <v>43449</v>
       </c>
       <c r="B411" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C411">
         <v>5</v>
@@ -9281,7 +9266,7 @@
         <v>43448</v>
       </c>
       <c r="B414" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C414">
         <v>5</v>
@@ -9292,7 +9277,7 @@
         <v>43447</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C415">
         <v>4</v>
@@ -9303,7 +9288,7 @@
         <v>43447</v>
       </c>
       <c r="B416" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C416">
         <v>5</v>
@@ -9325,7 +9310,7 @@
         <v>43447</v>
       </c>
       <c r="B418" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C418">
         <v>5</v>
@@ -9347,7 +9332,7 @@
         <v>43446</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C420">
         <v>5</v>
@@ -9358,7 +9343,7 @@
         <v>43446</v>
       </c>
       <c r="B421" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C421">
         <v>2</v>
@@ -9369,7 +9354,7 @@
         <v>43446</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C422">
         <v>5</v>
@@ -9391,7 +9376,7 @@
         <v>43445</v>
       </c>
       <c r="B424" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C424">
         <v>2</v>
@@ -9424,7 +9409,7 @@
         <v>43444</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C427">
         <v>5</v>
@@ -9435,7 +9420,7 @@
         <v>43444</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>782</v>
+        <v>1332</v>
       </c>
       <c r="C428">
         <v>4</v>
@@ -9457,7 +9442,7 @@
         <v>43443</v>
       </c>
       <c r="B430" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C430">
         <v>3</v>
@@ -9468,7 +9453,7 @@
         <v>43443</v>
       </c>
       <c r="B431" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="C431">
         <v>4</v>
@@ -9479,7 +9464,7 @@
         <v>43443</v>
       </c>
       <c r="B432" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C432">
         <v>1</v>
@@ -9490,7 +9475,7 @@
         <v>43443</v>
       </c>
       <c r="B433" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C433">
         <v>5</v>
@@ -9534,7 +9519,7 @@
         <v>43442</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C437">
         <v>5</v>
@@ -9545,7 +9530,7 @@
         <v>43442</v>
       </c>
       <c r="B438" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="C438">
         <v>5</v>
@@ -9556,7 +9541,7 @@
         <v>43442</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="C439">
         <v>5</v>
@@ -9567,7 +9552,7 @@
         <v>43442</v>
       </c>
       <c r="B440" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="C440">
         <v>4</v>
@@ -9578,7 +9563,7 @@
         <v>43442</v>
       </c>
       <c r="B441" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="C441">
         <v>5</v>
@@ -9600,7 +9585,7 @@
         <v>43441</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="C443">
         <v>4</v>
@@ -9611,7 +9596,7 @@
         <v>43440</v>
       </c>
       <c r="B444" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C444">
         <v>4</v>
@@ -9622,7 +9607,7 @@
         <v>43440</v>
       </c>
       <c r="B445" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="C445">
         <v>1</v>
@@ -9655,7 +9640,7 @@
         <v>43439</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="C448">
         <v>5</v>
@@ -9666,7 +9651,7 @@
         <v>43439</v>
       </c>
       <c r="B449" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="C449">
         <v>5</v>
@@ -9677,7 +9662,7 @@
         <v>43439</v>
       </c>
       <c r="B450" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="C450">
         <v>3</v>
@@ -9688,7 +9673,7 @@
         <v>43439</v>
       </c>
       <c r="B451" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="C451">
         <v>5</v>
@@ -9721,7 +9706,7 @@
         <v>43437</v>
       </c>
       <c r="B454" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C454">
         <v>5</v>
@@ -9743,7 +9728,7 @@
         <v>43435</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="C456">
         <v>1</v>
@@ -9754,7 +9739,7 @@
         <v>43435</v>
       </c>
       <c r="B457" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="C457">
         <v>5</v>
@@ -9765,7 +9750,7 @@
         <v>43434</v>
       </c>
       <c r="B458" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="C458">
         <v>5</v>
@@ -9809,7 +9794,7 @@
         <v>43433</v>
       </c>
       <c r="B462" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="C462">
         <v>5</v>
@@ -9864,7 +9849,7 @@
         <v>43431</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C467">
         <v>5</v>
@@ -9875,7 +9860,7 @@
         <v>43431</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C468">
         <v>1</v>
@@ -9886,7 +9871,7 @@
         <v>43431</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="C469">
         <v>5</v>
@@ -9930,7 +9915,7 @@
         <v>43430</v>
       </c>
       <c r="B473" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="C473">
         <v>5</v>
@@ -9985,7 +9970,7 @@
         <v>43429</v>
       </c>
       <c r="B478" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C478">
         <v>5</v>
@@ -9996,7 +9981,7 @@
         <v>43429</v>
       </c>
       <c r="B479" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="C479">
         <v>5</v>
@@ -10007,7 +9992,7 @@
         <v>43429</v>
       </c>
       <c r="B480" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C480">
         <v>4</v>
@@ -10018,7 +10003,7 @@
         <v>43429</v>
       </c>
       <c r="B481" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="C481">
         <v>5</v>
@@ -10040,7 +10025,7 @@
         <v>43428</v>
       </c>
       <c r="B483" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C483">
         <v>3</v>
@@ -10051,7 +10036,7 @@
         <v>43428</v>
       </c>
       <c r="B484" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C484">
         <v>5</v>
@@ -10073,7 +10058,7 @@
         <v>43427</v>
       </c>
       <c r="B486" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C486">
         <v>4</v>
@@ -10106,7 +10091,7 @@
         <v>43426</v>
       </c>
       <c r="B489" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C489">
         <v>1</v>
@@ -10117,7 +10102,7 @@
         <v>43425</v>
       </c>
       <c r="B490" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C490">
         <v>4</v>
@@ -10128,7 +10113,7 @@
         <v>43425</v>
       </c>
       <c r="B491" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C491">
         <v>4</v>
@@ -10139,7 +10124,7 @@
         <v>43424</v>
       </c>
       <c r="B492" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="C492">
         <v>5</v>
@@ -10150,7 +10135,7 @@
         <v>43424</v>
       </c>
       <c r="B493" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="C493">
         <v>4</v>
@@ -10161,7 +10146,7 @@
         <v>43424</v>
       </c>
       <c r="B494" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="C494">
         <v>2</v>
@@ -10183,7 +10168,7 @@
         <v>43423</v>
       </c>
       <c r="B496" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C496">
         <v>5</v>
@@ -10216,7 +10201,7 @@
         <v>43422</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C499">
         <v>5</v>
@@ -10227,7 +10212,7 @@
         <v>43422</v>
       </c>
       <c r="B500" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="C500">
         <v>5</v>
@@ -10260,7 +10245,7 @@
         <v>43421</v>
       </c>
       <c r="B503" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="C503">
         <v>4</v>
@@ -10282,7 +10267,7 @@
         <v>43419</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>825</v>
+        <v>1333</v>
       </c>
       <c r="C505">
         <v>5</v>
@@ -10293,7 +10278,7 @@
         <v>43418</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="C506">
         <v>2</v>
@@ -10304,7 +10289,7 @@
         <v>43418</v>
       </c>
       <c r="B507" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="C507">
         <v>3</v>
@@ -10326,7 +10311,7 @@
         <v>43417</v>
       </c>
       <c r="B509" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="C509">
         <v>4</v>
@@ -10337,7 +10322,7 @@
         <v>43417</v>
       </c>
       <c r="B510" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="C510">
         <v>5</v>
@@ -10348,7 +10333,7 @@
         <v>43417</v>
       </c>
       <c r="B511" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="C511">
         <v>4</v>
@@ -10381,7 +10366,7 @@
         <v>43416</v>
       </c>
       <c r="B514" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="C514">
         <v>5</v>
@@ -10392,7 +10377,7 @@
         <v>43416</v>
       </c>
       <c r="B515" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="C515">
         <v>5</v>
@@ -10403,7 +10388,7 @@
         <v>43416</v>
       </c>
       <c r="B516" s="2" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="C516">
         <v>4</v>
@@ -10436,7 +10421,7 @@
         <v>43415</v>
       </c>
       <c r="B519" s="2" t="s">
-        <v>834</v>
+        <v>1334</v>
       </c>
       <c r="C519">
         <v>5</v>
@@ -10447,7 +10432,7 @@
         <v>43415</v>
       </c>
       <c r="B520" s="2" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="C520">
         <v>5</v>
@@ -10458,7 +10443,7 @@
         <v>43415</v>
       </c>
       <c r="B521" s="2" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="C521">
         <v>5</v>
@@ -10469,7 +10454,7 @@
         <v>43415</v>
       </c>
       <c r="B522" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="C522">
         <v>5</v>
@@ -10502,7 +10487,7 @@
         <v>43414</v>
       </c>
       <c r="B525" t="s">
-        <v>838</v>
+        <v>834</v>
       </c>
       <c r="C525">
         <v>5</v>
@@ -10513,7 +10498,7 @@
         <v>43414</v>
       </c>
       <c r="B526" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="C526">
         <v>4</v>
@@ -10524,7 +10509,7 @@
         <v>43414</v>
       </c>
       <c r="B527" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="C527">
         <v>5</v>
@@ -10568,7 +10553,7 @@
         <v>43413</v>
       </c>
       <c r="B531" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="C531">
         <v>5</v>
@@ -10579,7 +10564,7 @@
         <v>43413</v>
       </c>
       <c r="B532" s="2" t="s">
-        <v>842</v>
+        <v>838</v>
       </c>
       <c r="C532">
         <v>5</v>
@@ -10590,7 +10575,7 @@
         <v>43413</v>
       </c>
       <c r="B533" s="2" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="C533">
         <v>5</v>
@@ -10601,7 +10586,7 @@
         <v>43413</v>
       </c>
       <c r="B534" t="s">
-        <v>844</v>
+        <v>840</v>
       </c>
       <c r="C534">
         <v>4</v>
@@ -10612,7 +10597,7 @@
         <v>43413</v>
       </c>
       <c r="B535" t="s">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="C535">
         <v>4</v>
@@ -10634,7 +10619,7 @@
         <v>43412</v>
       </c>
       <c r="B537" s="2" t="s">
-        <v>846</v>
+        <v>842</v>
       </c>
       <c r="C537">
         <v>5</v>
@@ -10656,7 +10641,7 @@
         <v>43411</v>
       </c>
       <c r="B539" t="s">
-        <v>847</v>
+        <v>843</v>
       </c>
       <c r="C539">
         <v>5</v>
@@ -10700,7 +10685,7 @@
         <v>43410</v>
       </c>
       <c r="B543" t="s">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="C543">
         <v>5</v>
@@ -10733,7 +10718,7 @@
         <v>43409</v>
       </c>
       <c r="B546" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C546">
         <v>5</v>
@@ -10744,7 +10729,7 @@
         <v>43409</v>
       </c>
       <c r="B547" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C547">
         <v>5</v>
@@ -10755,7 +10740,7 @@
         <v>43409</v>
       </c>
       <c r="B548" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C548">
         <v>5</v>
@@ -10777,7 +10762,7 @@
         <v>43408</v>
       </c>
       <c r="B550" s="2" t="s">
-        <v>852</v>
+        <v>848</v>
       </c>
       <c r="C550">
         <v>5</v>
@@ -10788,7 +10773,7 @@
         <v>43408</v>
       </c>
       <c r="B551" t="s">
-        <v>853</v>
+        <v>849</v>
       </c>
       <c r="C551">
         <v>1</v>
@@ -10799,7 +10784,7 @@
         <v>43408</v>
       </c>
       <c r="B552" t="s">
-        <v>854</v>
+        <v>850</v>
       </c>
       <c r="C552">
         <v>4</v>
@@ -10876,7 +10861,7 @@
         <v>43407</v>
       </c>
       <c r="B559" t="s">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C559">
         <v>5</v>
@@ -10887,7 +10872,7 @@
         <v>43407</v>
       </c>
       <c r="B560" t="s">
-        <v>856</v>
+        <v>852</v>
       </c>
       <c r="C560">
         <v>5</v>
@@ -10909,7 +10894,7 @@
         <v>43406</v>
       </c>
       <c r="B562" t="s">
-        <v>857</v>
+        <v>853</v>
       </c>
       <c r="C562">
         <v>5</v>
@@ -10964,7 +10949,7 @@
         <v>43404</v>
       </c>
       <c r="B567" t="s">
-        <v>858</v>
+        <v>854</v>
       </c>
       <c r="C567">
         <v>5</v>
@@ -10975,7 +10960,7 @@
         <v>43404</v>
       </c>
       <c r="B568" t="s">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="C568">
         <v>5</v>
@@ -10986,7 +10971,7 @@
         <v>43404</v>
       </c>
       <c r="B569" t="s">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="C569">
         <v>4</v>
@@ -10997,7 +10982,7 @@
         <v>43404</v>
       </c>
       <c r="B570" t="s">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="C570">
         <v>5</v>
@@ -11030,7 +11015,7 @@
         <v>43403</v>
       </c>
       <c r="B573" t="s">
-        <v>862</v>
+        <v>858</v>
       </c>
       <c r="C573">
         <v>5</v>
@@ -11041,7 +11026,7 @@
         <v>43403</v>
       </c>
       <c r="B574" t="s">
-        <v>863</v>
+        <v>859</v>
       </c>
       <c r="C574">
         <v>5</v>
@@ -11074,7 +11059,7 @@
         <v>43402</v>
       </c>
       <c r="B577" t="s">
-        <v>864</v>
+        <v>860</v>
       </c>
       <c r="C577">
         <v>2</v>
@@ -11085,7 +11070,7 @@
         <v>43402</v>
       </c>
       <c r="B578" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="C578">
         <v>5</v>
@@ -11096,7 +11081,7 @@
         <v>43402</v>
       </c>
       <c r="B579" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="C579">
         <v>4</v>
@@ -11107,7 +11092,7 @@
         <v>43402</v>
       </c>
       <c r="B580" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="C580">
         <v>5</v>
@@ -11140,7 +11125,7 @@
         <v>43401</v>
       </c>
       <c r="B583" t="s">
-        <v>868</v>
+        <v>864</v>
       </c>
       <c r="C583">
         <v>4</v>
@@ -11151,7 +11136,7 @@
         <v>43401</v>
       </c>
       <c r="B584" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="C584">
         <v>1</v>
@@ -11162,7 +11147,7 @@
         <v>43401</v>
       </c>
       <c r="B585" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="C585">
         <v>4</v>
@@ -11173,7 +11158,7 @@
         <v>43401</v>
       </c>
       <c r="B586" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="C586">
         <v>5</v>
@@ -11217,7 +11202,7 @@
         <v>43400</v>
       </c>
       <c r="B590" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C590">
         <v>3</v>
@@ -11228,7 +11213,7 @@
         <v>43400</v>
       </c>
       <c r="B591" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C591">
         <v>5</v>
@@ -11239,7 +11224,7 @@
         <v>43400</v>
       </c>
       <c r="B592" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="C592">
         <v>5</v>
@@ -11294,7 +11279,7 @@
         <v>43398</v>
       </c>
       <c r="B597" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="C597">
         <v>5</v>
@@ -11305,7 +11290,7 @@
         <v>43398</v>
       </c>
       <c r="B598" t="s">
-        <v>876</v>
+        <v>872</v>
       </c>
       <c r="C598">
         <v>4</v>
@@ -11327,7 +11312,7 @@
         <v>43397</v>
       </c>
       <c r="B600" t="s">
-        <v>877</v>
+        <v>873</v>
       </c>
       <c r="C600">
         <v>5</v>
@@ -11382,7 +11367,7 @@
         <v>43396</v>
       </c>
       <c r="B605" t="s">
-        <v>878</v>
+        <v>874</v>
       </c>
       <c r="C605">
         <v>5</v>
@@ -11393,7 +11378,7 @@
         <v>43396</v>
       </c>
       <c r="B606" s="2" t="s">
-        <v>879</v>
+        <v>875</v>
       </c>
       <c r="C606">
         <v>5</v>
@@ -11404,7 +11389,7 @@
         <v>43396</v>
       </c>
       <c r="B607" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C607">
         <v>5</v>
@@ -11415,7 +11400,7 @@
         <v>43396</v>
       </c>
       <c r="B608" t="s">
-        <v>881</v>
+        <v>877</v>
       </c>
       <c r="C608">
         <v>3</v>
@@ -11448,7 +11433,7 @@
         <v>43395</v>
       </c>
       <c r="B611" s="2" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="C611">
         <v>5</v>
@@ -11459,7 +11444,7 @@
         <v>43395</v>
       </c>
       <c r="B612" t="s">
-        <v>883</v>
+        <v>879</v>
       </c>
       <c r="C612">
         <v>4</v>
@@ -11470,7 +11455,7 @@
         <v>43395</v>
       </c>
       <c r="B613" t="s">
-        <v>884</v>
+        <v>880</v>
       </c>
       <c r="C613">
         <v>5</v>
@@ -11503,7 +11488,7 @@
         <v>43393</v>
       </c>
       <c r="B616" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="C616">
         <v>1</v>
@@ -11536,7 +11521,7 @@
         <v>43392</v>
       </c>
       <c r="B619" t="s">
-        <v>886</v>
+        <v>882</v>
       </c>
       <c r="C619">
         <v>1</v>
@@ -11580,7 +11565,7 @@
         <v>43390</v>
       </c>
       <c r="B623" t="s">
-        <v>887</v>
+        <v>883</v>
       </c>
       <c r="C623">
         <v>5</v>
@@ -11591,7 +11576,7 @@
         <v>43390</v>
       </c>
       <c r="B624" t="s">
-        <v>888</v>
+        <v>884</v>
       </c>
       <c r="C624">
         <v>5</v>
@@ -11602,7 +11587,7 @@
         <v>43390</v>
       </c>
       <c r="B625" t="s">
-        <v>889</v>
+        <v>885</v>
       </c>
       <c r="C625">
         <v>5</v>
@@ -11690,7 +11675,7 @@
         <v>43389</v>
       </c>
       <c r="B633" t="s">
-        <v>890</v>
+        <v>886</v>
       </c>
       <c r="C633">
         <v>4</v>
@@ -11701,7 +11686,7 @@
         <v>43389</v>
       </c>
       <c r="B634" t="s">
-        <v>891</v>
+        <v>887</v>
       </c>
       <c r="C634">
         <v>5</v>
@@ -11756,7 +11741,7 @@
         <v>43388</v>
       </c>
       <c r="B639" t="s">
-        <v>892</v>
+        <v>888</v>
       </c>
       <c r="C639">
         <v>3</v>
@@ -11767,7 +11752,7 @@
         <v>43388</v>
       </c>
       <c r="B640" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="C640">
         <v>5</v>
@@ -11778,7 +11763,7 @@
         <v>43388</v>
       </c>
       <c r="B641" t="s">
-        <v>894</v>
+        <v>890</v>
       </c>
       <c r="C641">
         <v>5</v>
@@ -11811,7 +11796,7 @@
         <v>43387</v>
       </c>
       <c r="B644" t="s">
-        <v>895</v>
+        <v>891</v>
       </c>
       <c r="C644">
         <v>5</v>
@@ -11822,7 +11807,7 @@
         <v>43386</v>
       </c>
       <c r="B645" t="s">
-        <v>896</v>
+        <v>892</v>
       </c>
       <c r="C645">
         <v>5</v>
@@ -11833,7 +11818,7 @@
         <v>43386</v>
       </c>
       <c r="B646" t="s">
-        <v>897</v>
+        <v>893</v>
       </c>
       <c r="C646">
         <v>5</v>
@@ -11888,7 +11873,7 @@
         <v>43385</v>
       </c>
       <c r="B651" s="2" t="s">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C651">
         <v>3</v>
@@ -11932,7 +11917,7 @@
         <v>43384</v>
       </c>
       <c r="B655" s="2" t="s">
-        <v>899</v>
+        <v>895</v>
       </c>
       <c r="C655">
         <v>5</v>
@@ -11943,7 +11928,7 @@
         <v>43383</v>
       </c>
       <c r="B656" s="2" t="s">
-        <v>900</v>
+        <v>896</v>
       </c>
       <c r="C656">
         <v>5</v>
@@ -11954,7 +11939,7 @@
         <v>43383</v>
       </c>
       <c r="B657" t="s">
-        <v>901</v>
+        <v>897</v>
       </c>
       <c r="C657">
         <v>5</v>
@@ -12042,7 +12027,7 @@
         <v>43382</v>
       </c>
       <c r="B665" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="C665">
         <v>5</v>
@@ -12086,7 +12071,7 @@
         <v>43381</v>
       </c>
       <c r="B669" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="C669">
         <v>5</v>
@@ -12130,7 +12115,7 @@
         <v>43380</v>
       </c>
       <c r="B673" t="s">
-        <v>904</v>
+        <v>900</v>
       </c>
       <c r="C673">
         <v>5</v>
@@ -12141,7 +12126,7 @@
         <v>43380</v>
       </c>
       <c r="B674" t="s">
-        <v>905</v>
+        <v>901</v>
       </c>
       <c r="C674">
         <v>5</v>
@@ -12273,7 +12258,7 @@
         <v>43379</v>
       </c>
       <c r="B686" s="2" t="s">
-        <v>906</v>
+        <v>902</v>
       </c>
       <c r="C686">
         <v>4</v>
@@ -12284,7 +12269,7 @@
         <v>43379</v>
       </c>
       <c r="B687" t="s">
-        <v>907</v>
+        <v>903</v>
       </c>
       <c r="C687">
         <v>4</v>
@@ -12361,7 +12346,7 @@
         <v>43378</v>
       </c>
       <c r="B694" t="s">
-        <v>908</v>
+        <v>904</v>
       </c>
       <c r="C694">
         <v>5</v>
@@ -12416,7 +12401,7 @@
         <v>43377</v>
       </c>
       <c r="B699" t="s">
-        <v>909</v>
+        <v>905</v>
       </c>
       <c r="C699">
         <v>5</v>
@@ -12427,7 +12412,7 @@
         <v>43377</v>
       </c>
       <c r="B700" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="C700">
         <v>5</v>
@@ -12482,7 +12467,7 @@
         <v>43376</v>
       </c>
       <c r="B705" t="s">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C705">
         <v>5</v>
@@ -12493,7 +12478,7 @@
         <v>43376</v>
       </c>
       <c r="B706" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="C706">
         <v>5</v>
@@ -12504,7 +12489,7 @@
         <v>43376</v>
       </c>
       <c r="B707" t="s">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="C707">
         <v>5</v>
@@ -12559,7 +12544,7 @@
         <v>43375</v>
       </c>
       <c r="B712" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="C712">
         <v>5</v>
@@ -12570,7 +12555,7 @@
         <v>43375</v>
       </c>
       <c r="B713" t="s">
-        <v>915</v>
+        <v>911</v>
       </c>
       <c r="C713">
         <v>4</v>
@@ -12581,7 +12566,7 @@
         <v>43375</v>
       </c>
       <c r="B714" t="s">
-        <v>916</v>
+        <v>912</v>
       </c>
       <c r="C714">
         <v>2</v>
@@ -12592,7 +12577,7 @@
         <v>43375</v>
       </c>
       <c r="B715" t="s">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="C715">
         <v>4</v>
@@ -12614,7 +12599,7 @@
         <v>43374</v>
       </c>
       <c r="B717" t="s">
-        <v>918</v>
+        <v>914</v>
       </c>
       <c r="C717">
         <v>5</v>
@@ -12625,7 +12610,7 @@
         <v>43374</v>
       </c>
       <c r="B718" t="s">
-        <v>919</v>
+        <v>915</v>
       </c>
       <c r="C718">
         <v>4</v>
@@ -12724,7 +12709,7 @@
         <v>43373</v>
       </c>
       <c r="B727" t="s">
-        <v>920</v>
+        <v>916</v>
       </c>
       <c r="C727">
         <v>4</v>
@@ -12735,7 +12720,7 @@
         <v>43373</v>
       </c>
       <c r="B728" t="s">
-        <v>921</v>
+        <v>917</v>
       </c>
       <c r="C728">
         <v>5</v>
@@ -12834,7 +12819,7 @@
         <v>43371</v>
       </c>
       <c r="B737" s="2" t="s">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C737">
         <v>5</v>
@@ -12845,7 +12830,7 @@
         <v>43371</v>
       </c>
       <c r="B738" s="2" t="s">
-        <v>923</v>
+        <v>919</v>
       </c>
       <c r="C738">
         <v>5</v>
@@ -12878,7 +12863,7 @@
         <v>43370</v>
       </c>
       <c r="B741" t="s">
-        <v>924</v>
+        <v>920</v>
       </c>
       <c r="C741">
         <v>5</v>
@@ -12889,7 +12874,7 @@
         <v>43370</v>
       </c>
       <c r="B742" t="s">
-        <v>925</v>
+        <v>921</v>
       </c>
       <c r="C742">
         <v>1</v>
@@ -12933,7 +12918,7 @@
         <v>43369</v>
       </c>
       <c r="B746" t="s">
-        <v>926</v>
+        <v>922</v>
       </c>
       <c r="C746">
         <v>5</v>
@@ -12944,7 +12929,7 @@
         <v>43369</v>
       </c>
       <c r="B747" t="s">
-        <v>927</v>
+        <v>923</v>
       </c>
       <c r="C747">
         <v>5</v>
@@ -12955,7 +12940,7 @@
         <v>43369</v>
       </c>
       <c r="B748" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="C748">
         <v>5</v>
@@ -12999,7 +12984,7 @@
         <v>43368</v>
       </c>
       <c r="B752" s="2" t="s">
-        <v>929</v>
+        <v>925</v>
       </c>
       <c r="C752">
         <v>5</v>
@@ -13010,7 +12995,7 @@
         <v>43368</v>
       </c>
       <c r="B753" t="s">
-        <v>930</v>
+        <v>926</v>
       </c>
       <c r="C753">
         <v>5</v>
@@ -13021,7 +13006,7 @@
         <v>43368</v>
       </c>
       <c r="B754" s="2" t="s">
-        <v>931</v>
+        <v>927</v>
       </c>
       <c r="C754">
         <v>5</v>
@@ -13076,7 +13061,7 @@
         <v>43367</v>
       </c>
       <c r="B759" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="C759">
         <v>5</v>
@@ -13131,7 +13116,7 @@
         <v>43366</v>
       </c>
       <c r="B764" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="C764">
         <v>5</v>
@@ -13142,7 +13127,7 @@
         <v>43366</v>
       </c>
       <c r="B765" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="C765">
         <v>1</v>
@@ -13175,7 +13160,7 @@
         <v>43364</v>
       </c>
       <c r="B768" s="2" t="s">
-        <v>935</v>
+        <v>931</v>
       </c>
       <c r="C768">
         <v>3</v>
@@ -13186,7 +13171,7 @@
         <v>43364</v>
       </c>
       <c r="B769" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C769">
         <v>5</v>
@@ -13197,7 +13182,7 @@
         <v>43364</v>
       </c>
       <c r="B770" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="C770">
         <v>5</v>
@@ -13219,7 +13204,7 @@
         <v>43363</v>
       </c>
       <c r="B772" s="2" t="s">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="C772">
         <v>5</v>
@@ -13230,7 +13215,7 @@
         <v>43363</v>
       </c>
       <c r="B773" t="s">
-        <v>939</v>
+        <v>935</v>
       </c>
       <c r="C773">
         <v>5</v>
@@ -13241,7 +13226,7 @@
         <v>43363</v>
       </c>
       <c r="B774" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="C774">
         <v>5</v>
@@ -13252,7 +13237,7 @@
         <v>43363</v>
       </c>
       <c r="B775" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="C775">
         <v>5</v>
@@ -13274,7 +13259,7 @@
         <v>43362</v>
       </c>
       <c r="B777" t="s">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="C777">
         <v>3</v>
@@ -13285,7 +13270,7 @@
         <v>43362</v>
       </c>
       <c r="B778" s="2" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
       <c r="C778">
         <v>1</v>
@@ -13307,7 +13292,7 @@
         <v>43361</v>
       </c>
       <c r="B780" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="C780">
         <v>5</v>
@@ -13318,7 +13303,7 @@
         <v>43361</v>
       </c>
       <c r="B781" s="2" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="C781">
         <v>5</v>
@@ -13351,7 +13336,7 @@
         <v>43360</v>
       </c>
       <c r="B784" t="s">
-        <v>946</v>
+        <v>942</v>
       </c>
       <c r="C784">
         <v>5</v>
@@ -13362,7 +13347,7 @@
         <v>43360</v>
       </c>
       <c r="B785" t="s">
-        <v>947</v>
+        <v>943</v>
       </c>
       <c r="C785">
         <v>5</v>
@@ -13395,7 +13380,7 @@
         <v>43359</v>
       </c>
       <c r="B788" t="s">
-        <v>948</v>
+        <v>944</v>
       </c>
       <c r="C788">
         <v>5</v>
@@ -13406,7 +13391,7 @@
         <v>43359</v>
       </c>
       <c r="B789" s="2" t="s">
-        <v>949</v>
+        <v>945</v>
       </c>
       <c r="C789">
         <v>5</v>
@@ -13417,7 +13402,7 @@
         <v>43359</v>
       </c>
       <c r="B790" s="2" t="s">
-        <v>950</v>
+        <v>946</v>
       </c>
       <c r="C790">
         <v>5</v>
@@ -13428,7 +13413,7 @@
         <v>43359</v>
       </c>
       <c r="B791" s="2" t="s">
-        <v>951</v>
+        <v>947</v>
       </c>
       <c r="C791">
         <v>5</v>
@@ -13461,7 +13446,7 @@
         <v>43358</v>
       </c>
       <c r="B794" t="s">
-        <v>952</v>
+        <v>948</v>
       </c>
       <c r="C794">
         <v>5</v>
@@ -13472,7 +13457,7 @@
         <v>43358</v>
       </c>
       <c r="B795" t="s">
-        <v>953</v>
+        <v>949</v>
       </c>
       <c r="C795">
         <v>5</v>
@@ -13516,7 +13501,7 @@
         <v>43356</v>
       </c>
       <c r="B799" t="s">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C799">
         <v>5</v>
@@ -13527,7 +13512,7 @@
         <v>43356</v>
       </c>
       <c r="B800" t="s">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="C800">
         <v>5</v>
@@ -13538,7 +13523,7 @@
         <v>43356</v>
       </c>
       <c r="B801" s="2" t="s">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C801">
         <v>1</v>
@@ -13560,7 +13545,7 @@
         <v>43355</v>
       </c>
       <c r="B803" t="s">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="C803">
         <v>3</v>
@@ -13593,7 +13578,7 @@
         <v>43354</v>
       </c>
       <c r="B806" s="2" t="s">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C806">
         <v>5</v>
@@ -13604,7 +13589,7 @@
         <v>43354</v>
       </c>
       <c r="B807" t="s">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="C807">
         <v>1</v>
@@ -13659,7 +13644,7 @@
         <v>43353</v>
       </c>
       <c r="B812" t="s">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C812">
         <v>5</v>
@@ -13681,7 +13666,7 @@
         <v>43352</v>
       </c>
       <c r="B814" s="2" t="s">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="C814">
         <v>5</v>
@@ -13692,7 +13677,7 @@
         <v>43352</v>
       </c>
       <c r="B815" t="s">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C815">
         <v>5</v>
@@ -13703,7 +13688,7 @@
         <v>43352</v>
       </c>
       <c r="B816" t="s">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="C816">
         <v>4</v>
@@ -13714,7 +13699,7 @@
         <v>43352</v>
       </c>
       <c r="B817" t="s">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C817">
         <v>4</v>
@@ -13758,7 +13743,7 @@
         <v>43350</v>
       </c>
       <c r="B821" s="2" t="s">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="C821">
         <v>5</v>
@@ -13769,7 +13754,7 @@
         <v>43350</v>
       </c>
       <c r="B822" t="s">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C822">
         <v>4</v>
@@ -13835,7 +13820,7 @@
         <v>43349</v>
       </c>
       <c r="B828" t="s">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="C828">
         <v>4</v>
@@ -13846,7 +13831,7 @@
         <v>43348</v>
       </c>
       <c r="B829" t="s">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C829">
         <v>5</v>
@@ -13857,7 +13842,7 @@
         <v>43348</v>
       </c>
       <c r="B830" s="2" t="s">
-        <v>969</v>
+        <v>965</v>
       </c>
       <c r="C830">
         <v>5</v>
@@ -13868,7 +13853,7 @@
         <v>43347</v>
       </c>
       <c r="B831" s="2" t="s">
-        <v>970</v>
+        <v>966</v>
       </c>
       <c r="C831">
         <v>5</v>
@@ -13879,7 +13864,7 @@
         <v>43347</v>
       </c>
       <c r="B832" t="s">
-        <v>971</v>
+        <v>967</v>
       </c>
       <c r="C832">
         <v>5</v>
@@ -13912,7 +13897,7 @@
         <v>43346</v>
       </c>
       <c r="B835" t="s">
-        <v>972</v>
+        <v>968</v>
       </c>
       <c r="C835">
         <v>2</v>
@@ -13989,7 +13974,7 @@
         <v>43343</v>
       </c>
       <c r="B842" t="s">
-        <v>973</v>
+        <v>969</v>
       </c>
       <c r="C842">
         <v>4</v>
@@ -14033,7 +14018,7 @@
         <v>43342</v>
       </c>
       <c r="B846" t="s">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C846">
         <v>4</v>
@@ -14044,7 +14029,7 @@
         <v>43342</v>
       </c>
       <c r="B847" t="s">
-        <v>975</v>
+        <v>971</v>
       </c>
       <c r="C847">
         <v>5</v>
@@ -14055,7 +14040,7 @@
         <v>43342</v>
       </c>
       <c r="B848" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="C848">
         <v>5</v>
@@ -14099,7 +14084,7 @@
         <v>43340</v>
       </c>
       <c r="B852" s="2" t="s">
-        <v>977</v>
+        <v>973</v>
       </c>
       <c r="C852">
         <v>5</v>
@@ -14110,7 +14095,7 @@
         <v>43340</v>
       </c>
       <c r="B853" t="s">
-        <v>978</v>
+        <v>974</v>
       </c>
       <c r="C853">
         <v>5</v>
@@ -14132,7 +14117,7 @@
         <v>43339</v>
       </c>
       <c r="B855" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="C855">
         <v>5</v>
@@ -14143,7 +14128,7 @@
         <v>43339</v>
       </c>
       <c r="B856" s="2" t="s">
-        <v>980</v>
+        <v>976</v>
       </c>
       <c r="C856">
         <v>5</v>
@@ -14154,7 +14139,7 @@
         <v>43339</v>
       </c>
       <c r="B857" t="s">
-        <v>981</v>
+        <v>977</v>
       </c>
       <c r="C857">
         <v>5</v>
@@ -14165,7 +14150,7 @@
         <v>43339</v>
       </c>
       <c r="B858" t="s">
-        <v>982</v>
+        <v>978</v>
       </c>
       <c r="C858">
         <v>5</v>
@@ -14198,7 +14183,7 @@
         <v>43338</v>
       </c>
       <c r="B861" t="s">
-        <v>983</v>
+        <v>979</v>
       </c>
       <c r="C861">
         <v>5</v>
@@ -14209,7 +14194,7 @@
         <v>43338</v>
       </c>
       <c r="B862" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="C862">
         <v>5</v>
@@ -14220,7 +14205,7 @@
         <v>43338</v>
       </c>
       <c r="B863" t="s">
-        <v>985</v>
+        <v>981</v>
       </c>
       <c r="C863">
         <v>5</v>
@@ -14242,7 +14227,7 @@
         <v>43337</v>
       </c>
       <c r="B865" s="2" t="s">
-        <v>986</v>
+        <v>982</v>
       </c>
       <c r="C865">
         <v>3</v>
@@ -14253,7 +14238,7 @@
         <v>43337</v>
       </c>
       <c r="B866" t="s">
-        <v>987</v>
+        <v>983</v>
       </c>
       <c r="C866">
         <v>5</v>
@@ -14264,7 +14249,7 @@
         <v>43337</v>
       </c>
       <c r="B867" t="s">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C867">
         <v>4</v>
@@ -14286,7 +14271,7 @@
         <v>43336</v>
       </c>
       <c r="B869" t="s">
-        <v>989</v>
+        <v>985</v>
       </c>
       <c r="C869">
         <v>5</v>
@@ -14341,7 +14326,7 @@
         <v>43335</v>
       </c>
       <c r="B874" t="s">
-        <v>990</v>
+        <v>986</v>
       </c>
       <c r="C874">
         <v>5</v>
@@ -14374,7 +14359,7 @@
         <v>43333</v>
       </c>
       <c r="B877" t="s">
-        <v>991</v>
+        <v>987</v>
       </c>
       <c r="C877">
         <v>5</v>
@@ -14385,7 +14370,7 @@
         <v>43332</v>
       </c>
       <c r="B878" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="C878">
         <v>1</v>
@@ -14396,7 +14381,7 @@
         <v>43332</v>
       </c>
       <c r="B879" t="s">
-        <v>993</v>
+        <v>989</v>
       </c>
       <c r="C879">
         <v>5</v>
@@ -14407,7 +14392,7 @@
         <v>43332</v>
       </c>
       <c r="B880" t="s">
-        <v>994</v>
+        <v>990</v>
       </c>
       <c r="C880">
         <v>5</v>
@@ -14418,7 +14403,7 @@
         <v>43331</v>
       </c>
       <c r="B881" t="s">
-        <v>995</v>
+        <v>991</v>
       </c>
       <c r="C881">
         <v>5</v>
@@ -14429,7 +14414,7 @@
         <v>43331</v>
       </c>
       <c r="B882" t="s">
-        <v>996</v>
+        <v>992</v>
       </c>
       <c r="C882">
         <v>4</v>
@@ -14440,7 +14425,7 @@
         <v>43331</v>
       </c>
       <c r="B883" t="s">
-        <v>997</v>
+        <v>993</v>
       </c>
       <c r="C883">
         <v>5</v>
@@ -14484,7 +14469,7 @@
         <v>43329</v>
       </c>
       <c r="B887" t="s">
-        <v>998</v>
+        <v>994</v>
       </c>
       <c r="C887">
         <v>4</v>
@@ -14517,7 +14502,7 @@
         <v>43328</v>
       </c>
       <c r="B890" t="s">
-        <v>999</v>
+        <v>995</v>
       </c>
       <c r="C890">
         <v>5</v>
@@ -14528,7 +14513,7 @@
         <v>43328</v>
       </c>
       <c r="B891" t="s">
-        <v>1000</v>
+        <v>996</v>
       </c>
       <c r="C891">
         <v>5</v>
@@ -14561,7 +14546,7 @@
         <v>43327</v>
       </c>
       <c r="B894" s="2" t="s">
-        <v>1001</v>
+        <v>997</v>
       </c>
       <c r="C894">
         <v>1</v>
@@ -14572,7 +14557,7 @@
         <v>43327</v>
       </c>
       <c r="B895" t="s">
-        <v>1002</v>
+        <v>998</v>
       </c>
       <c r="C895">
         <v>1</v>
@@ -14583,7 +14568,7 @@
         <v>43327</v>
       </c>
       <c r="B896" t="s">
-        <v>1003</v>
+        <v>999</v>
       </c>
       <c r="C896">
         <v>5</v>
@@ -14594,7 +14579,7 @@
         <v>43327</v>
       </c>
       <c r="B897" t="s">
-        <v>1004</v>
+        <v>1000</v>
       </c>
       <c r="C897">
         <v>5</v>
@@ -14638,7 +14623,7 @@
         <v>43326</v>
       </c>
       <c r="B901" t="s">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C901">
         <v>5</v>
@@ -14649,7 +14634,7 @@
         <v>43326</v>
       </c>
       <c r="B902" t="s">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C902">
         <v>1</v>
@@ -14660,7 +14645,7 @@
         <v>43326</v>
       </c>
       <c r="B903" t="s">
-        <v>1007</v>
+        <v>1003</v>
       </c>
       <c r="C903">
         <v>5</v>
@@ -14671,7 +14656,7 @@
         <v>43325</v>
       </c>
       <c r="B904" s="2" t="s">
-        <v>1008</v>
+        <v>1004</v>
       </c>
       <c r="C904">
         <v>4</v>
@@ -14682,7 +14667,7 @@
         <v>43325</v>
       </c>
       <c r="B905" s="2" t="s">
-        <v>1009</v>
+        <v>1005</v>
       </c>
       <c r="C905">
         <v>5</v>
@@ -14693,7 +14678,7 @@
         <v>43325</v>
       </c>
       <c r="B906" t="s">
-        <v>1010</v>
+        <v>1006</v>
       </c>
       <c r="C906">
         <v>5</v>
@@ -14704,7 +14689,7 @@
         <v>43325</v>
       </c>
       <c r="B907" t="s">
-        <v>1011</v>
+        <v>1007</v>
       </c>
       <c r="C907">
         <v>5</v>
@@ -14715,7 +14700,7 @@
         <v>43325</v>
       </c>
       <c r="B908" t="s">
-        <v>1012</v>
+        <v>1008</v>
       </c>
       <c r="C908">
         <v>1</v>
@@ -14748,7 +14733,7 @@
         <v>43324</v>
       </c>
       <c r="B911" s="2" t="s">
-        <v>1013</v>
+        <v>1335</v>
       </c>
       <c r="C911">
         <v>5</v>
@@ -14759,7 +14744,7 @@
         <v>43324</v>
       </c>
       <c r="B912" t="s">
-        <v>1014</v>
+        <v>1009</v>
       </c>
       <c r="C912">
         <v>5</v>
@@ -14770,7 +14755,7 @@
         <v>43324</v>
       </c>
       <c r="B913" t="s">
-        <v>1015</v>
+        <v>1010</v>
       </c>
       <c r="C913">
         <v>2</v>
@@ -14781,7 +14766,7 @@
         <v>43324</v>
       </c>
       <c r="B914" t="s">
-        <v>1016</v>
+        <v>1011</v>
       </c>
       <c r="C914">
         <v>5</v>
@@ -14814,7 +14799,7 @@
         <v>43323</v>
       </c>
       <c r="B917" s="2" t="s">
-        <v>1017</v>
+        <v>1012</v>
       </c>
       <c r="C917">
         <v>3</v>
@@ -14825,7 +14810,7 @@
         <v>43323</v>
       </c>
       <c r="B918" t="s">
-        <v>1018</v>
+        <v>1013</v>
       </c>
       <c r="C918">
         <v>5</v>
@@ -14836,7 +14821,7 @@
         <v>43322</v>
       </c>
       <c r="B919" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C919">
         <v>5</v>
@@ -14847,7 +14832,7 @@
         <v>43322</v>
       </c>
       <c r="B920" t="s">
-        <v>1020</v>
+        <v>1015</v>
       </c>
       <c r="C920">
         <v>5</v>
@@ -14869,7 +14854,7 @@
         <v>43321</v>
       </c>
       <c r="B922" t="s">
-        <v>1021</v>
+        <v>1016</v>
       </c>
       <c r="C922">
         <v>1</v>
@@ -14880,7 +14865,7 @@
         <v>43321</v>
       </c>
       <c r="B923" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="C923">
         <v>5</v>
@@ -14891,7 +14876,7 @@
         <v>43321</v>
       </c>
       <c r="B924" t="s">
-        <v>1023</v>
+        <v>1018</v>
       </c>
       <c r="C924">
         <v>5</v>
@@ -14913,7 +14898,7 @@
         <v>43320</v>
       </c>
       <c r="B926" s="2" t="s">
-        <v>1024</v>
+        <v>1019</v>
       </c>
       <c r="C926">
         <v>5</v>
@@ -14924,7 +14909,7 @@
         <v>43320</v>
       </c>
       <c r="B927" t="s">
-        <v>1025</v>
+        <v>1020</v>
       </c>
       <c r="C927">
         <v>5</v>
@@ -14935,7 +14920,7 @@
         <v>43319</v>
       </c>
       <c r="B928" s="2" t="s">
-        <v>1026</v>
+        <v>1021</v>
       </c>
       <c r="C928">
         <v>3</v>
@@ -14946,7 +14931,7 @@
         <v>43319</v>
       </c>
       <c r="B929" t="s">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C929">
         <v>5</v>
@@ -14957,7 +14942,7 @@
         <v>43319</v>
       </c>
       <c r="B930" t="s">
-        <v>1028</v>
+        <v>1023</v>
       </c>
       <c r="C930">
         <v>4</v>
@@ -14968,7 +14953,7 @@
         <v>43319</v>
       </c>
       <c r="B931" t="s">
-        <v>1029</v>
+        <v>1024</v>
       </c>
       <c r="C931">
         <v>5</v>
@@ -14990,7 +14975,7 @@
         <v>43318</v>
       </c>
       <c r="B933" t="s">
-        <v>1030</v>
+        <v>1025</v>
       </c>
       <c r="C933">
         <v>4</v>
@@ -15001,7 +14986,7 @@
         <v>43318</v>
       </c>
       <c r="B934" t="s">
-        <v>1031</v>
+        <v>1026</v>
       </c>
       <c r="C934">
         <v>1</v>
@@ -15045,7 +15030,7 @@
         <v>43317</v>
       </c>
       <c r="B938" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C938">
         <v>5</v>
@@ -15078,7 +15063,7 @@
         <v>43315</v>
       </c>
       <c r="B941" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="C941">
         <v>5</v>
@@ -15089,7 +15074,7 @@
         <v>43315</v>
       </c>
       <c r="B942" s="2" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="C942">
         <v>5</v>
@@ -15100,7 +15085,7 @@
         <v>43315</v>
       </c>
       <c r="B943" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="C943">
         <v>5</v>
@@ -15111,7 +15096,7 @@
         <v>43315</v>
       </c>
       <c r="B944" t="s">
-        <v>1036</v>
+        <v>1031</v>
       </c>
       <c r="C944">
         <v>5</v>
@@ -15155,7 +15140,7 @@
         <v>43314</v>
       </c>
       <c r="B948" t="s">
-        <v>1037</v>
+        <v>1032</v>
       </c>
       <c r="C948">
         <v>5</v>
@@ -15166,7 +15151,7 @@
         <v>43314</v>
       </c>
       <c r="B949" t="s">
-        <v>1038</v>
+        <v>1033</v>
       </c>
       <c r="C949">
         <v>3</v>
@@ -15188,7 +15173,7 @@
         <v>43313</v>
       </c>
       <c r="B951" t="s">
-        <v>1039</v>
+        <v>1034</v>
       </c>
       <c r="C951">
         <v>4</v>
@@ -15199,7 +15184,7 @@
         <v>43313</v>
       </c>
       <c r="B952" t="s">
-        <v>1040</v>
+        <v>1035</v>
       </c>
       <c r="C952">
         <v>5</v>
@@ -15210,7 +15195,7 @@
         <v>43313</v>
       </c>
       <c r="B953" t="s">
-        <v>1041</v>
+        <v>1036</v>
       </c>
       <c r="C953">
         <v>5</v>
@@ -15254,7 +15239,7 @@
         <v>43312</v>
       </c>
       <c r="B957" t="s">
-        <v>1042</v>
+        <v>1037</v>
       </c>
       <c r="C957">
         <v>5</v>
@@ -15265,7 +15250,7 @@
         <v>43312</v>
       </c>
       <c r="B958" t="s">
-        <v>1043</v>
+        <v>1038</v>
       </c>
       <c r="C958">
         <v>5</v>
@@ -15298,7 +15283,7 @@
         <v>43311</v>
       </c>
       <c r="B961" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="C961">
         <v>5</v>
@@ -15309,7 +15294,7 @@
         <v>43311</v>
       </c>
       <c r="B962" t="s">
-        <v>1045</v>
+        <v>1040</v>
       </c>
       <c r="C962">
         <v>5</v>
@@ -15331,7 +15316,7 @@
         <v>43310</v>
       </c>
       <c r="B964" s="2" t="s">
-        <v>1046</v>
+        <v>1041</v>
       </c>
       <c r="C964">
         <v>5</v>
@@ -15342,7 +15327,7 @@
         <v>43310</v>
       </c>
       <c r="B965" t="s">
-        <v>1047</v>
+        <v>1042</v>
       </c>
       <c r="C965">
         <v>4</v>
@@ -15375,7 +15360,7 @@
         <v>43309</v>
       </c>
       <c r="B968" t="s">
-        <v>1048</v>
+        <v>1043</v>
       </c>
       <c r="C968">
         <v>1</v>
@@ -15386,7 +15371,7 @@
         <v>43309</v>
       </c>
       <c r="B969" s="2" t="s">
-        <v>1049</v>
+        <v>1044</v>
       </c>
       <c r="C969">
         <v>5</v>
@@ -15397,7 +15382,7 @@
         <v>43309</v>
       </c>
       <c r="B970" t="s">
-        <v>1050</v>
+        <v>1045</v>
       </c>
       <c r="C970">
         <v>1</v>
@@ -15408,7 +15393,7 @@
         <v>43309</v>
       </c>
       <c r="B971" t="s">
-        <v>1051</v>
+        <v>1046</v>
       </c>
       <c r="C971">
         <v>5</v>
@@ -15419,7 +15404,7 @@
         <v>43309</v>
       </c>
       <c r="B972" s="2" t="s">
-        <v>1052</v>
+        <v>1047</v>
       </c>
       <c r="C972">
         <v>1</v>
@@ -15430,7 +15415,7 @@
         <v>43309</v>
       </c>
       <c r="B973" t="s">
-        <v>1053</v>
+        <v>1048</v>
       </c>
       <c r="C973">
         <v>5</v>
@@ -15441,7 +15426,7 @@
         <v>43308</v>
       </c>
       <c r="B974" t="s">
-        <v>1054</v>
+        <v>1049</v>
       </c>
       <c r="C974">
         <v>1</v>
@@ -15507,7 +15492,7 @@
         <v>43306</v>
       </c>
       <c r="B980" t="s">
-        <v>1055</v>
+        <v>1050</v>
       </c>
       <c r="C980">
         <v>3</v>
@@ -15529,7 +15514,7 @@
         <v>43305</v>
       </c>
       <c r="B982" t="s">
-        <v>1056</v>
+        <v>1051</v>
       </c>
       <c r="C982">
         <v>5</v>
@@ -15540,7 +15525,7 @@
         <v>43305</v>
       </c>
       <c r="B983" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C983">
         <v>5</v>
@@ -15562,7 +15547,7 @@
         <v>43304</v>
       </c>
       <c r="B985" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C985">
         <v>5</v>
@@ -15573,7 +15558,7 @@
         <v>43304</v>
       </c>
       <c r="B986" s="2" t="s">
-        <v>1059</v>
+        <v>1336</v>
       </c>
       <c r="C986">
         <v>4</v>
@@ -15595,7 +15580,7 @@
         <v>43303</v>
       </c>
       <c r="B988" t="s">
-        <v>1060</v>
+        <v>1054</v>
       </c>
       <c r="C988">
         <v>5</v>
@@ -15606,7 +15591,7 @@
         <v>43303</v>
       </c>
       <c r="B989" s="2" t="s">
-        <v>1061</v>
+        <v>1337</v>
       </c>
       <c r="C989">
         <v>5</v>
@@ -15617,7 +15602,7 @@
         <v>43303</v>
       </c>
       <c r="B990" t="s">
-        <v>1062</v>
+        <v>1055</v>
       </c>
       <c r="C990">
         <v>5</v>
@@ -15628,7 +15613,7 @@
         <v>43303</v>
       </c>
       <c r="B991" t="s">
-        <v>1063</v>
+        <v>1056</v>
       </c>
       <c r="C991">
         <v>1</v>
@@ -15694,7 +15679,7 @@
         <v>43302</v>
       </c>
       <c r="B997" t="s">
-        <v>1064</v>
+        <v>1057</v>
       </c>
       <c r="C997">
         <v>5</v>
@@ -15716,7 +15701,7 @@
         <v>43300</v>
       </c>
       <c r="B999" s="2" t="s">
-        <v>1065</v>
+        <v>1058</v>
       </c>
       <c r="C999">
         <v>5</v>
@@ -15727,7 +15712,7 @@
         <v>43300</v>
       </c>
       <c r="B1000" t="s">
-        <v>1066</v>
+        <v>1059</v>
       </c>
       <c r="C1000">
         <v>5</v>
@@ -15738,7 +15723,7 @@
         <v>43300</v>
       </c>
       <c r="B1001" t="s">
-        <v>1067</v>
+        <v>1060</v>
       </c>
       <c r="C1001">
         <v>5</v>
@@ -15793,7 +15778,7 @@
         <v>43299</v>
       </c>
       <c r="B1006" t="s">
-        <v>1068</v>
+        <v>1061</v>
       </c>
       <c r="C1006">
         <v>5</v>
@@ -15881,7 +15866,7 @@
         <v>43298</v>
       </c>
       <c r="B1014" t="s">
-        <v>1069</v>
+        <v>1062</v>
       </c>
       <c r="C1014">
         <v>3</v>
@@ -15892,7 +15877,7 @@
         <v>43298</v>
       </c>
       <c r="B1015" t="s">
-        <v>1070</v>
+        <v>1063</v>
       </c>
       <c r="C1015">
         <v>4</v>
@@ -15991,7 +15976,7 @@
         <v>43296</v>
       </c>
       <c r="B1024" s="2" t="s">
-        <v>1071</v>
+        <v>1064</v>
       </c>
       <c r="C1024">
         <v>5</v>
@@ -16002,7 +15987,7 @@
         <v>43296</v>
       </c>
       <c r="B1025" t="s">
-        <v>1072</v>
+        <v>1065</v>
       </c>
       <c r="C1025">
         <v>3</v>
@@ -16024,7 +16009,7 @@
         <v>43295</v>
       </c>
       <c r="B1027" t="s">
-        <v>1073</v>
+        <v>1066</v>
       </c>
       <c r="C1027">
         <v>5</v>
@@ -16046,7 +16031,7 @@
         <v>43294</v>
       </c>
       <c r="B1029" s="2" t="s">
-        <v>1074</v>
+        <v>1067</v>
       </c>
       <c r="C1029">
         <v>5</v>
@@ -16057,7 +16042,7 @@
         <v>43294</v>
       </c>
       <c r="B1030" t="s">
-        <v>1075</v>
+        <v>1068</v>
       </c>
       <c r="C1030">
         <v>5</v>
@@ -16068,7 +16053,7 @@
         <v>43294</v>
       </c>
       <c r="B1031" t="s">
-        <v>1076</v>
+        <v>1069</v>
       </c>
       <c r="C1031">
         <v>5</v>
@@ -16079,7 +16064,7 @@
         <v>43293</v>
       </c>
       <c r="B1032" t="s">
-        <v>1077</v>
+        <v>1070</v>
       </c>
       <c r="C1032">
         <v>5</v>
@@ -16090,7 +16075,7 @@
         <v>43293</v>
       </c>
       <c r="B1033" t="s">
-        <v>1078</v>
+        <v>1071</v>
       </c>
       <c r="C1033">
         <v>5</v>
@@ -16145,7 +16130,7 @@
         <v>43292</v>
       </c>
       <c r="B1038" s="2" t="s">
-        <v>1079</v>
+        <v>1338</v>
       </c>
       <c r="C1038">
         <v>5</v>
@@ -16156,7 +16141,7 @@
         <v>43292</v>
       </c>
       <c r="B1039" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
       <c r="C1039">
         <v>5</v>
@@ -16178,7 +16163,7 @@
         <v>43292</v>
       </c>
       <c r="B1041" t="s">
-        <v>1081</v>
+        <v>1073</v>
       </c>
       <c r="C1041">
         <v>5</v>
@@ -16222,7 +16207,7 @@
         <v>43291</v>
       </c>
       <c r="B1045" t="s">
-        <v>1082</v>
+        <v>1074</v>
       </c>
       <c r="C1045">
         <v>4</v>
@@ -16233,7 +16218,7 @@
         <v>43291</v>
       </c>
       <c r="B1046" t="s">
-        <v>1083</v>
+        <v>1075</v>
       </c>
       <c r="C1046">
         <v>5</v>
@@ -16244,7 +16229,7 @@
         <v>43291</v>
       </c>
       <c r="B1047" t="s">
-        <v>1084</v>
+        <v>1076</v>
       </c>
       <c r="C1047">
         <v>5</v>
@@ -16288,7 +16273,7 @@
         <v>43290</v>
       </c>
       <c r="B1051" t="s">
-        <v>1085</v>
+        <v>1077</v>
       </c>
       <c r="C1051">
         <v>5</v>
@@ -16343,7 +16328,7 @@
         <v>43289</v>
       </c>
       <c r="B1056" s="2" t="s">
-        <v>1086</v>
+        <v>1078</v>
       </c>
       <c r="C1056">
         <v>5</v>
@@ -16365,7 +16350,7 @@
         <v>43289</v>
       </c>
       <c r="B1058" s="2" t="s">
-        <v>1087</v>
+        <v>1079</v>
       </c>
       <c r="C1058">
         <v>4</v>
@@ -16453,7 +16438,7 @@
         <v>43288</v>
       </c>
       <c r="B1066" t="s">
-        <v>1088</v>
+        <v>1080</v>
       </c>
       <c r="C1066">
         <v>5</v>
@@ -16585,7 +16570,7 @@
         <v>43286</v>
       </c>
       <c r="B1078" t="s">
-        <v>1089</v>
+        <v>1081</v>
       </c>
       <c r="C1078">
         <v>5</v>
@@ -16596,7 +16581,7 @@
         <v>43286</v>
       </c>
       <c r="B1079" t="s">
-        <v>1090</v>
+        <v>1082</v>
       </c>
       <c r="C1079">
         <v>5</v>
@@ -16618,7 +16603,7 @@
         <v>43286</v>
       </c>
       <c r="B1081" t="s">
-        <v>1091</v>
+        <v>1083</v>
       </c>
       <c r="C1081">
         <v>4</v>
@@ -16684,7 +16669,7 @@
         <v>43284</v>
       </c>
       <c r="B1087" t="s">
-        <v>1092</v>
+        <v>1084</v>
       </c>
       <c r="C1087">
         <v>5</v>
@@ -16717,7 +16702,7 @@
         <v>43283</v>
       </c>
       <c r="B1090" s="2" t="s">
-        <v>1093</v>
+        <v>1085</v>
       </c>
       <c r="C1090">
         <v>5</v>
@@ -16728,7 +16713,7 @@
         <v>43283</v>
       </c>
       <c r="B1091" t="s">
-        <v>1094</v>
+        <v>1086</v>
       </c>
       <c r="C1091">
         <v>5</v>
@@ -16739,7 +16724,7 @@
         <v>43283</v>
       </c>
       <c r="B1092" t="s">
-        <v>1095</v>
+        <v>1087</v>
       </c>
       <c r="C1092">
         <v>3</v>
@@ -16750,7 +16735,7 @@
         <v>43283</v>
       </c>
       <c r="B1093" s="2" t="s">
-        <v>1096</v>
+        <v>1088</v>
       </c>
       <c r="C1093">
         <v>5</v>
@@ -16794,7 +16779,7 @@
         <v>43281</v>
       </c>
       <c r="B1097" t="s">
-        <v>1097</v>
+        <v>1089</v>
       </c>
       <c r="C1097">
         <v>5</v>
@@ -16816,7 +16801,7 @@
         <v>43280</v>
       </c>
       <c r="B1099" t="s">
-        <v>1098</v>
+        <v>1090</v>
       </c>
       <c r="C1099">
         <v>5</v>
@@ -16860,7 +16845,7 @@
         <v>43279</v>
       </c>
       <c r="B1103" s="2" t="s">
-        <v>1099</v>
+        <v>1091</v>
       </c>
       <c r="C1103">
         <v>5</v>
@@ -16893,7 +16878,7 @@
         <v>43278</v>
       </c>
       <c r="B1106" s="2" t="s">
-        <v>1100</v>
+        <v>1092</v>
       </c>
       <c r="C1106">
         <v>5</v>
@@ -16904,7 +16889,7 @@
         <v>43278</v>
       </c>
       <c r="B1107" t="s">
-        <v>1101</v>
+        <v>1093</v>
       </c>
       <c r="C1107">
         <v>5</v>
@@ -16937,7 +16922,7 @@
         <v>43276</v>
       </c>
       <c r="B1110" t="s">
-        <v>1102</v>
+        <v>1094</v>
       </c>
       <c r="C1110">
         <v>5</v>
@@ -16948,7 +16933,7 @@
         <v>43276</v>
       </c>
       <c r="B1111" t="s">
-        <v>1103</v>
+        <v>1095</v>
       </c>
       <c r="C1111">
         <v>5</v>
@@ -16959,7 +16944,7 @@
         <v>43275</v>
       </c>
       <c r="B1112" s="2" t="s">
-        <v>1104</v>
+        <v>1096</v>
       </c>
       <c r="C1112">
         <v>4</v>
@@ -16981,7 +16966,7 @@
         <v>43275</v>
       </c>
       <c r="B1114" t="s">
-        <v>1105</v>
+        <v>1097</v>
       </c>
       <c r="C1114">
         <v>5</v>
@@ -16992,7 +16977,7 @@
         <v>43275</v>
       </c>
       <c r="B1115" t="s">
-        <v>1106</v>
+        <v>1098</v>
       </c>
       <c r="C1115">
         <v>5</v>
@@ -17003,7 +16988,7 @@
         <v>43274</v>
       </c>
       <c r="B1116" s="2" t="s">
-        <v>1107</v>
+        <v>1099</v>
       </c>
       <c r="C1116">
         <v>5</v>
@@ -17014,7 +16999,7 @@
         <v>43274</v>
       </c>
       <c r="B1117" t="s">
-        <v>1108</v>
+        <v>1100</v>
       </c>
       <c r="C1117">
         <v>4</v>
@@ -17025,7 +17010,7 @@
         <v>43274</v>
       </c>
       <c r="B1118" t="s">
-        <v>1109</v>
+        <v>1101</v>
       </c>
       <c r="C1118">
         <v>5</v>
@@ -17036,7 +17021,7 @@
         <v>43274</v>
       </c>
       <c r="B1119" t="s">
-        <v>1110</v>
+        <v>1102</v>
       </c>
       <c r="C1119">
         <v>5</v>
@@ -17080,7 +17065,7 @@
         <v>43272</v>
       </c>
       <c r="B1123" t="s">
-        <v>1111</v>
+        <v>1103</v>
       </c>
       <c r="C1123">
         <v>5</v>
@@ -17091,7 +17076,7 @@
         <v>43272</v>
       </c>
       <c r="B1124" t="s">
-        <v>1112</v>
+        <v>1104</v>
       </c>
       <c r="C1124">
         <v>5</v>
@@ -17102,7 +17087,7 @@
         <v>43271</v>
       </c>
       <c r="B1125" t="s">
-        <v>1113</v>
+        <v>1105</v>
       </c>
       <c r="C1125">
         <v>5</v>
@@ -17135,7 +17120,7 @@
         <v>43270</v>
       </c>
       <c r="B1128" t="s">
-        <v>1114</v>
+        <v>1106</v>
       </c>
       <c r="C1128">
         <v>3</v>
@@ -17146,7 +17131,7 @@
         <v>43270</v>
       </c>
       <c r="B1129" t="s">
-        <v>1115</v>
+        <v>1107</v>
       </c>
       <c r="C1129">
         <v>1</v>
@@ -17168,7 +17153,7 @@
         <v>43269</v>
       </c>
       <c r="B1131" t="s">
-        <v>1116</v>
+        <v>1108</v>
       </c>
       <c r="C1131">
         <v>1</v>
@@ -17179,7 +17164,7 @@
         <v>43268</v>
       </c>
       <c r="B1132" t="s">
-        <v>1117</v>
+        <v>1109</v>
       </c>
       <c r="C1132">
         <v>5</v>
@@ -17190,7 +17175,7 @@
         <v>43268</v>
       </c>
       <c r="B1133" t="s">
-        <v>1118</v>
+        <v>1110</v>
       </c>
       <c r="C1133">
         <v>5</v>
@@ -17212,7 +17197,7 @@
         <v>43267</v>
       </c>
       <c r="B1135" t="s">
-        <v>1119</v>
+        <v>1111</v>
       </c>
       <c r="C1135">
         <v>5</v>
@@ -17223,7 +17208,7 @@
         <v>43267</v>
       </c>
       <c r="B1136" t="s">
-        <v>1120</v>
+        <v>1112</v>
       </c>
       <c r="C1136">
         <v>5</v>
@@ -17234,7 +17219,7 @@
         <v>43267</v>
       </c>
       <c r="B1137" t="s">
-        <v>1121</v>
+        <v>1113</v>
       </c>
       <c r="C1137">
         <v>4</v>
@@ -17245,7 +17230,7 @@
         <v>43267</v>
       </c>
       <c r="B1138" t="s">
-        <v>1122</v>
+        <v>1114</v>
       </c>
       <c r="C1138">
         <v>1</v>
@@ -17278,7 +17263,7 @@
         <v>43266</v>
       </c>
       <c r="B1141" t="s">
-        <v>1123</v>
+        <v>1115</v>
       </c>
       <c r="C1141">
         <v>4</v>
@@ -17289,7 +17274,7 @@
         <v>43266</v>
       </c>
       <c r="B1142" s="2" t="s">
-        <v>1124</v>
+        <v>1116</v>
       </c>
       <c r="C1142">
         <v>5</v>
@@ -17311,7 +17296,7 @@
         <v>43265</v>
       </c>
       <c r="B1144" t="s">
-        <v>1125</v>
+        <v>1117</v>
       </c>
       <c r="C1144">
         <v>5</v>
@@ -17322,7 +17307,7 @@
         <v>43265</v>
       </c>
       <c r="B1145" t="s">
-        <v>1126</v>
+        <v>1118</v>
       </c>
       <c r="C1145">
         <v>5</v>
@@ -17333,7 +17318,7 @@
         <v>43264</v>
       </c>
       <c r="B1146" s="2" t="s">
-        <v>1127</v>
+        <v>1119</v>
       </c>
       <c r="C1146">
         <v>5</v>
@@ -17344,7 +17329,7 @@
         <v>43264</v>
       </c>
       <c r="B1147" t="s">
-        <v>1128</v>
+        <v>1120</v>
       </c>
       <c r="C1147">
         <v>5</v>
@@ -17355,7 +17340,7 @@
         <v>43264</v>
       </c>
       <c r="B1148" t="s">
-        <v>1129</v>
+        <v>1121</v>
       </c>
       <c r="C1148">
         <v>5</v>
@@ -17377,7 +17362,7 @@
         <v>43263</v>
       </c>
       <c r="B1150" t="s">
-        <v>1130</v>
+        <v>1122</v>
       </c>
       <c r="C1150">
         <v>5</v>
@@ -17388,7 +17373,7 @@
         <v>43263</v>
       </c>
       <c r="B1151" t="s">
-        <v>1131</v>
+        <v>1123</v>
       </c>
       <c r="C1151">
         <v>5</v>
@@ -17410,7 +17395,7 @@
         <v>43261</v>
       </c>
       <c r="B1153" t="s">
-        <v>1132</v>
+        <v>1124</v>
       </c>
       <c r="C1153">
         <v>3</v>
@@ -17421,7 +17406,7 @@
         <v>43261</v>
       </c>
       <c r="B1154" t="s">
-        <v>1133</v>
+        <v>1125</v>
       </c>
       <c r="C1154">
         <v>2</v>
@@ -17432,7 +17417,7 @@
         <v>43261</v>
       </c>
       <c r="B1155" t="s">
-        <v>1134</v>
+        <v>1126</v>
       </c>
       <c r="C1155">
         <v>5</v>
@@ -17465,7 +17450,7 @@
         <v>43260</v>
       </c>
       <c r="B1158" s="2" t="s">
-        <v>1135</v>
+        <v>1127</v>
       </c>
       <c r="C1158">
         <v>4</v>
@@ -17476,7 +17461,7 @@
         <v>43259</v>
       </c>
       <c r="B1159" t="s">
-        <v>1136</v>
+        <v>1128</v>
       </c>
       <c r="C1159">
         <v>5</v>
@@ -17498,7 +17483,7 @@
         <v>43258</v>
       </c>
       <c r="B1161" t="s">
-        <v>1137</v>
+        <v>1129</v>
       </c>
       <c r="C1161">
         <v>5</v>
@@ -17509,7 +17494,7 @@
         <v>43258</v>
       </c>
       <c r="B1162" t="s">
-        <v>1138</v>
+        <v>1130</v>
       </c>
       <c r="C1162">
         <v>2</v>
@@ -17520,7 +17505,7 @@
         <v>43258</v>
       </c>
       <c r="B1163" t="s">
-        <v>1139</v>
+        <v>1131</v>
       </c>
       <c r="C1163">
         <v>5</v>
@@ -17531,7 +17516,7 @@
         <v>43257</v>
       </c>
       <c r="B1164" t="s">
-        <v>1140</v>
+        <v>1132</v>
       </c>
       <c r="C1164">
         <v>4</v>
@@ -17542,7 +17527,7 @@
         <v>43257</v>
       </c>
       <c r="B1165" t="s">
-        <v>1141</v>
+        <v>1133</v>
       </c>
       <c r="C1165">
         <v>2</v>
@@ -17586,7 +17571,7 @@
         <v>43255</v>
       </c>
       <c r="B1169" s="2" t="s">
-        <v>1142</v>
+        <v>1134</v>
       </c>
       <c r="C1169">
         <v>5</v>
@@ -17597,7 +17582,7 @@
         <v>43255</v>
       </c>
       <c r="B1170" s="2" t="s">
-        <v>1143</v>
+        <v>1135</v>
       </c>
       <c r="C1170">
         <v>5</v>
@@ -17608,7 +17593,7 @@
         <v>43255</v>
       </c>
       <c r="B1171" t="s">
-        <v>1144</v>
+        <v>1136</v>
       </c>
       <c r="C1171">
         <v>5</v>
@@ -17641,7 +17626,7 @@
         <v>43254</v>
       </c>
       <c r="B1174" t="s">
-        <v>1145</v>
+        <v>1137</v>
       </c>
       <c r="C1174">
         <v>4</v>
@@ -17652,7 +17637,7 @@
         <v>43254</v>
       </c>
       <c r="B1175" s="2" t="s">
-        <v>1146</v>
+        <v>1138</v>
       </c>
       <c r="C1175">
         <v>5</v>
@@ -17663,7 +17648,7 @@
         <v>43253</v>
       </c>
       <c r="B1176" t="s">
-        <v>1147</v>
+        <v>1139</v>
       </c>
       <c r="C1176">
         <v>5</v>
@@ -17674,7 +17659,7 @@
         <v>43253</v>
       </c>
       <c r="B1177" t="s">
-        <v>1148</v>
+        <v>1140</v>
       </c>
       <c r="C1177">
         <v>5</v>
@@ -17685,7 +17670,7 @@
         <v>43252</v>
       </c>
       <c r="B1178" t="s">
-        <v>1149</v>
+        <v>1141</v>
       </c>
       <c r="C1178">
         <v>5</v>
@@ -17696,7 +17681,7 @@
         <v>43252</v>
       </c>
       <c r="B1179" s="2" t="s">
-        <v>1150</v>
+        <v>1142</v>
       </c>
       <c r="C1179">
         <v>3</v>
@@ -17707,7 +17692,7 @@
         <v>43252</v>
       </c>
       <c r="B1180" t="s">
-        <v>1151</v>
+        <v>1143</v>
       </c>
       <c r="C1180">
         <v>1</v>
@@ -17718,7 +17703,7 @@
         <v>43252</v>
       </c>
       <c r="B1181" t="s">
-        <v>1152</v>
+        <v>1144</v>
       </c>
       <c r="C1181">
         <v>5</v>
@@ -17729,7 +17714,7 @@
         <v>43251</v>
       </c>
       <c r="B1182" t="s">
-        <v>1153</v>
+        <v>1145</v>
       </c>
       <c r="C1182">
         <v>4</v>
@@ -17740,7 +17725,7 @@
         <v>43251</v>
       </c>
       <c r="B1183" t="s">
-        <v>1154</v>
+        <v>1146</v>
       </c>
       <c r="C1183">
         <v>5</v>
@@ -17773,7 +17758,7 @@
         <v>43250</v>
       </c>
       <c r="B1186" s="2" t="s">
-        <v>1155</v>
+        <v>1147</v>
       </c>
       <c r="C1186">
         <v>5</v>
@@ -17784,7 +17769,7 @@
         <v>43250</v>
       </c>
       <c r="B1187" t="s">
-        <v>1156</v>
+        <v>1148</v>
       </c>
       <c r="C1187">
         <v>5</v>
@@ -17795,7 +17780,7 @@
         <v>43250</v>
       </c>
       <c r="B1188" t="s">
-        <v>1157</v>
+        <v>1149</v>
       </c>
       <c r="C1188">
         <v>4</v>
@@ -17806,7 +17791,7 @@
         <v>43250</v>
       </c>
       <c r="B1189" t="s">
-        <v>1158</v>
+        <v>1150</v>
       </c>
       <c r="C1189">
         <v>5</v>
@@ -17817,7 +17802,7 @@
         <v>43250</v>
       </c>
       <c r="B1190" t="s">
-        <v>1159</v>
+        <v>1151</v>
       </c>
       <c r="C1190">
         <v>5</v>
@@ -17828,7 +17813,7 @@
         <v>43250</v>
       </c>
       <c r="B1191" t="s">
-        <v>1160</v>
+        <v>1152</v>
       </c>
       <c r="C1191">
         <v>5</v>
@@ -17839,7 +17824,7 @@
         <v>43250</v>
       </c>
       <c r="B1192" t="s">
-        <v>1161</v>
+        <v>1153</v>
       </c>
       <c r="C1192">
         <v>5</v>
@@ -17850,7 +17835,7 @@
         <v>43249</v>
       </c>
       <c r="B1193" s="2" t="s">
-        <v>1162</v>
+        <v>1154</v>
       </c>
       <c r="C1193">
         <v>5</v>
@@ -17861,7 +17846,7 @@
         <v>43249</v>
       </c>
       <c r="B1194" t="s">
-        <v>1163</v>
+        <v>1155</v>
       </c>
       <c r="C1194">
         <v>4</v>
@@ -17872,7 +17857,7 @@
         <v>43248</v>
       </c>
       <c r="B1195" t="s">
-        <v>1164</v>
+        <v>1156</v>
       </c>
       <c r="C1195">
         <v>5</v>
@@ -17883,7 +17868,7 @@
         <v>43248</v>
       </c>
       <c r="B1196" t="s">
-        <v>1165</v>
+        <v>1157</v>
       </c>
       <c r="C1196">
         <v>5</v>
@@ -17894,7 +17879,7 @@
         <v>43248</v>
       </c>
       <c r="B1197" t="s">
-        <v>1166</v>
+        <v>1158</v>
       </c>
       <c r="C1197">
         <v>5</v>
@@ -17905,7 +17890,7 @@
         <v>43248</v>
       </c>
       <c r="B1198" t="s">
-        <v>1167</v>
+        <v>1159</v>
       </c>
       <c r="C1198">
         <v>5</v>
@@ -17938,7 +17923,7 @@
         <v>43247</v>
       </c>
       <c r="B1201" s="2" t="s">
-        <v>1168</v>
+        <v>1160</v>
       </c>
       <c r="C1201">
         <v>5</v>
@@ -17949,7 +17934,7 @@
         <v>43247</v>
       </c>
       <c r="B1202" t="s">
-        <v>1169</v>
+        <v>1161</v>
       </c>
       <c r="C1202">
         <v>5</v>
@@ -17960,7 +17945,7 @@
         <v>43247</v>
       </c>
       <c r="B1203" t="s">
-        <v>1170</v>
+        <v>1162</v>
       </c>
       <c r="C1203">
         <v>5</v>
@@ -17971,7 +17956,7 @@
         <v>43247</v>
       </c>
       <c r="B1204" t="s">
-        <v>1171</v>
+        <v>1163</v>
       </c>
       <c r="C1204">
         <v>4</v>
@@ -18015,7 +18000,7 @@
         <v>43246</v>
       </c>
       <c r="B1208" t="s">
-        <v>1172</v>
+        <v>1164</v>
       </c>
       <c r="C1208">
         <v>5</v>
@@ -18037,7 +18022,7 @@
         <v>43246</v>
       </c>
       <c r="B1210" s="2" t="s">
-        <v>1173</v>
+        <v>1165</v>
       </c>
       <c r="C1210">
         <v>1</v>
@@ -18048,7 +18033,7 @@
         <v>43245</v>
       </c>
       <c r="B1211" t="s">
-        <v>1174</v>
+        <v>1166</v>
       </c>
       <c r="C1211">
         <v>5</v>
@@ -18059,7 +18044,7 @@
         <v>43245</v>
       </c>
       <c r="B1212" t="s">
-        <v>1175</v>
+        <v>1167</v>
       </c>
       <c r="C1212">
         <v>5</v>
@@ -18092,7 +18077,7 @@
         <v>43244</v>
       </c>
       <c r="B1215" t="s">
-        <v>1176</v>
+        <v>1168</v>
       </c>
       <c r="C1215">
         <v>5</v>
@@ -18114,7 +18099,7 @@
         <v>43243</v>
       </c>
       <c r="B1217" s="2" t="s">
-        <v>1177</v>
+        <v>1169</v>
       </c>
       <c r="C1217">
         <v>5</v>
@@ -18125,7 +18110,7 @@
         <v>43243</v>
       </c>
       <c r="B1218" s="2" t="s">
-        <v>1178</v>
+        <v>1170</v>
       </c>
       <c r="C1218">
         <v>4</v>
@@ -18136,7 +18121,7 @@
         <v>43243</v>
       </c>
       <c r="B1219" s="2" t="s">
-        <v>1179</v>
+        <v>1171</v>
       </c>
       <c r="C1219">
         <v>5</v>
@@ -18147,7 +18132,7 @@
         <v>43243</v>
       </c>
       <c r="B1220" t="s">
-        <v>1180</v>
+        <v>1172</v>
       </c>
       <c r="C1220">
         <v>5</v>
@@ -18158,7 +18143,7 @@
         <v>43243</v>
       </c>
       <c r="B1221" s="2" t="s">
-        <v>1181</v>
+        <v>1173</v>
       </c>
       <c r="C1221">
         <v>5</v>
@@ -18169,7 +18154,7 @@
         <v>43243</v>
       </c>
       <c r="B1222" t="s">
-        <v>1182</v>
+        <v>1174</v>
       </c>
       <c r="C1222">
         <v>2</v>
@@ -18180,7 +18165,7 @@
         <v>43243</v>
       </c>
       <c r="B1223" t="s">
-        <v>1183</v>
+        <v>1175</v>
       </c>
       <c r="C1223">
         <v>5</v>
@@ -18202,7 +18187,7 @@
         <v>43242</v>
       </c>
       <c r="B1225" s="2" t="s">
-        <v>1184</v>
+        <v>1339</v>
       </c>
       <c r="C1225">
         <v>4</v>
@@ -18213,7 +18198,7 @@
         <v>43242</v>
       </c>
       <c r="B1226" t="s">
-        <v>1185</v>
+        <v>1176</v>
       </c>
       <c r="C1226">
         <v>5</v>
@@ -18224,7 +18209,7 @@
         <v>43242</v>
       </c>
       <c r="B1227" t="s">
-        <v>1186</v>
+        <v>1177</v>
       </c>
       <c r="C1227">
         <v>3</v>
@@ -18235,7 +18220,7 @@
         <v>43242</v>
       </c>
       <c r="B1228" t="s">
-        <v>1187</v>
+        <v>1178</v>
       </c>
       <c r="C1228">
         <v>5</v>
@@ -18246,7 +18231,7 @@
         <v>43242</v>
       </c>
       <c r="B1229" t="s">
-        <v>1188</v>
+        <v>1179</v>
       </c>
       <c r="C1229">
         <v>4</v>
@@ -18290,7 +18275,7 @@
         <v>43241</v>
       </c>
       <c r="B1233" t="s">
-        <v>1189</v>
+        <v>1180</v>
       </c>
       <c r="C1233">
         <v>5</v>
@@ -18301,7 +18286,7 @@
         <v>43241</v>
       </c>
       <c r="B1234" s="2" t="s">
-        <v>1190</v>
+        <v>1181</v>
       </c>
       <c r="C1234">
         <v>3</v>
@@ -18312,7 +18297,7 @@
         <v>43241</v>
       </c>
       <c r="B1235" t="s">
-        <v>1191</v>
+        <v>1182</v>
       </c>
       <c r="C1235">
         <v>4</v>
@@ -18323,7 +18308,7 @@
         <v>43241</v>
       </c>
       <c r="B1236" t="s">
-        <v>1192</v>
+        <v>1183</v>
       </c>
       <c r="C1236">
         <v>5</v>
@@ -18345,7 +18330,7 @@
         <v>43241</v>
       </c>
       <c r="B1238" t="s">
-        <v>1193</v>
+        <v>1184</v>
       </c>
       <c r="C1238">
         <v>5</v>
@@ -18356,7 +18341,7 @@
         <v>43241</v>
       </c>
       <c r="B1239" t="s">
-        <v>1194</v>
+        <v>1185</v>
       </c>
       <c r="C1239">
         <v>5</v>
@@ -18367,7 +18352,7 @@
         <v>43241</v>
       </c>
       <c r="B1240" t="s">
-        <v>1195</v>
+        <v>1186</v>
       </c>
       <c r="C1240">
         <v>5</v>
@@ -18389,7 +18374,7 @@
         <v>43240</v>
       </c>
       <c r="B1242" t="s">
-        <v>1196</v>
+        <v>1187</v>
       </c>
       <c r="C1242">
         <v>5</v>
@@ -18400,7 +18385,7 @@
         <v>43240</v>
       </c>
       <c r="B1243" t="s">
-        <v>1197</v>
+        <v>1188</v>
       </c>
       <c r="C1243">
         <v>5</v>
@@ -18411,7 +18396,7 @@
         <v>43240</v>
       </c>
       <c r="B1244" t="s">
-        <v>1198</v>
+        <v>1189</v>
       </c>
       <c r="C1244">
         <v>5</v>
@@ -18422,7 +18407,7 @@
         <v>43240</v>
       </c>
       <c r="B1245" t="s">
-        <v>1199</v>
+        <v>1190</v>
       </c>
       <c r="C1245">
         <v>4</v>
@@ -18433,7 +18418,7 @@
         <v>43240</v>
       </c>
       <c r="B1246" t="s">
-        <v>1200</v>
+        <v>1191</v>
       </c>
       <c r="C1246">
         <v>5</v>
@@ -18444,7 +18429,7 @@
         <v>43240</v>
       </c>
       <c r="B1247" t="s">
-        <v>1201</v>
+        <v>1192</v>
       </c>
       <c r="C1247">
         <v>5</v>
@@ -18466,7 +18451,7 @@
         <v>43239</v>
       </c>
       <c r="B1249" t="s">
-        <v>1202</v>
+        <v>1193</v>
       </c>
       <c r="C1249">
         <v>5</v>
@@ -18477,7 +18462,7 @@
         <v>43239</v>
       </c>
       <c r="B1250" t="s">
-        <v>1203</v>
+        <v>1194</v>
       </c>
       <c r="C1250">
         <v>5</v>
@@ -18488,7 +18473,7 @@
         <v>43239</v>
       </c>
       <c r="B1251" t="s">
-        <v>1204</v>
+        <v>1195</v>
       </c>
       <c r="C1251">
         <v>5</v>
@@ -18499,7 +18484,7 @@
         <v>43239</v>
       </c>
       <c r="B1252" t="s">
-        <v>1205</v>
+        <v>1196</v>
       </c>
       <c r="C1252">
         <v>5</v>
@@ -18510,7 +18495,7 @@
         <v>43238</v>
       </c>
       <c r="B1253" s="2" t="s">
-        <v>1206</v>
+        <v>1197</v>
       </c>
       <c r="C1253">
         <v>3</v>
@@ -18521,7 +18506,7 @@
         <v>43238</v>
       </c>
       <c r="B1254" s="2" t="s">
-        <v>1207</v>
+        <v>1198</v>
       </c>
       <c r="C1254">
         <v>5</v>
@@ -18532,7 +18517,7 @@
         <v>43238</v>
       </c>
       <c r="B1255" s="2" t="s">
-        <v>1208</v>
+        <v>1199</v>
       </c>
       <c r="C1255">
         <v>5</v>
@@ -18543,7 +18528,7 @@
         <v>43238</v>
       </c>
       <c r="B1256" t="s">
-        <v>1209</v>
+        <v>1200</v>
       </c>
       <c r="C1256">
         <v>5</v>
@@ -18554,7 +18539,7 @@
         <v>43238</v>
       </c>
       <c r="B1257" t="s">
-        <v>1210</v>
+        <v>1201</v>
       </c>
       <c r="C1257">
         <v>5</v>
@@ -18576,7 +18561,7 @@
         <v>43237</v>
       </c>
       <c r="B1259" t="s">
-        <v>1211</v>
+        <v>1202</v>
       </c>
       <c r="C1259">
         <v>5</v>
@@ -18587,7 +18572,7 @@
         <v>43237</v>
       </c>
       <c r="B1260" s="2" t="s">
-        <v>1212</v>
+        <v>1203</v>
       </c>
       <c r="C1260">
         <v>3</v>
@@ -18598,7 +18583,7 @@
         <v>43237</v>
       </c>
       <c r="B1261" t="s">
-        <v>1213</v>
+        <v>1204</v>
       </c>
       <c r="C1261">
         <v>5</v>
@@ -18609,7 +18594,7 @@
         <v>43236</v>
       </c>
       <c r="B1262" s="2" t="s">
-        <v>1214</v>
+        <v>1205</v>
       </c>
       <c r="C1262">
         <v>5</v>
@@ -18620,7 +18605,7 @@
         <v>43236</v>
       </c>
       <c r="B1263" t="s">
-        <v>1215</v>
+        <v>1206</v>
       </c>
       <c r="C1263">
         <v>3</v>
@@ -18631,7 +18616,7 @@
         <v>43236</v>
       </c>
       <c r="B1264" t="s">
-        <v>1216</v>
+        <v>1207</v>
       </c>
       <c r="C1264">
         <v>5</v>
@@ -18642,7 +18627,7 @@
         <v>43236</v>
       </c>
       <c r="B1265" t="s">
-        <v>1217</v>
+        <v>1208</v>
       </c>
       <c r="C1265">
         <v>5</v>
@@ -18653,7 +18638,7 @@
         <v>43236</v>
       </c>
       <c r="B1266" t="s">
-        <v>1218</v>
+        <v>1209</v>
       </c>
       <c r="C1266">
         <v>5</v>
@@ -18664,7 +18649,7 @@
         <v>43235</v>
       </c>
       <c r="B1267" t="s">
-        <v>1219</v>
+        <v>1210</v>
       </c>
       <c r="C1267">
         <v>5</v>
@@ -18675,7 +18660,7 @@
         <v>43235</v>
       </c>
       <c r="B1268" s="2" t="s">
-        <v>1220</v>
+        <v>1340</v>
       </c>
       <c r="C1268">
         <v>1</v>
@@ -18686,7 +18671,7 @@
         <v>43234</v>
       </c>
       <c r="B1269" t="s">
-        <v>1221</v>
+        <v>1211</v>
       </c>
       <c r="C1269">
         <v>4</v>
@@ -18697,7 +18682,7 @@
         <v>43234</v>
       </c>
       <c r="B1270" t="s">
-        <v>1222</v>
+        <v>1212</v>
       </c>
       <c r="C1270">
         <v>5</v>
@@ -18719,7 +18704,7 @@
         <v>43234</v>
       </c>
       <c r="B1272" t="s">
-        <v>1223</v>
+        <v>1213</v>
       </c>
       <c r="C1272">
         <v>5</v>
@@ -18730,7 +18715,7 @@
         <v>43234</v>
       </c>
       <c r="B1273" t="s">
-        <v>1224</v>
+        <v>1214</v>
       </c>
       <c r="C1273">
         <v>5</v>
@@ -18741,7 +18726,7 @@
         <v>43234</v>
       </c>
       <c r="B1274" t="s">
-        <v>1225</v>
+        <v>1215</v>
       </c>
       <c r="C1274">
         <v>5</v>
@@ -18752,7 +18737,7 @@
         <v>43234</v>
       </c>
       <c r="B1275" t="s">
-        <v>1226</v>
+        <v>1216</v>
       </c>
       <c r="C1275">
         <v>2</v>
@@ -18774,7 +18759,7 @@
         <v>43233</v>
       </c>
       <c r="B1277" s="2" t="s">
-        <v>1227</v>
+        <v>1217</v>
       </c>
       <c r="C1277">
         <v>5</v>
@@ -18785,7 +18770,7 @@
         <v>43233</v>
       </c>
       <c r="B1278" s="2" t="s">
-        <v>1228</v>
+        <v>1218</v>
       </c>
       <c r="C1278">
         <v>5</v>
@@ -18796,7 +18781,7 @@
         <v>43233</v>
       </c>
       <c r="B1279" t="s">
-        <v>1229</v>
+        <v>1219</v>
       </c>
       <c r="C1279">
         <v>4</v>
@@ -18807,7 +18792,7 @@
         <v>43233</v>
       </c>
       <c r="B1280" s="2" t="s">
-        <v>1230</v>
+        <v>1220</v>
       </c>
       <c r="C1280">
         <v>5</v>
@@ -18818,7 +18803,7 @@
         <v>43233</v>
       </c>
       <c r="B1281" t="s">
-        <v>1231</v>
+        <v>1221</v>
       </c>
       <c r="C1281">
         <v>5</v>
@@ -18829,7 +18814,7 @@
         <v>43233</v>
       </c>
       <c r="B1282" t="s">
-        <v>1232</v>
+        <v>1222</v>
       </c>
       <c r="C1282">
         <v>5</v>
@@ -18840,7 +18825,7 @@
         <v>43233</v>
       </c>
       <c r="B1283" t="s">
-        <v>1233</v>
+        <v>1223</v>
       </c>
       <c r="C1283">
         <v>5</v>
@@ -18862,7 +18847,7 @@
         <v>43232</v>
       </c>
       <c r="B1285" s="2" t="s">
-        <v>1234</v>
+        <v>1224</v>
       </c>
       <c r="C1285">
         <v>5</v>
@@ -18873,7 +18858,7 @@
         <v>43232</v>
       </c>
       <c r="B1286" t="s">
-        <v>1235</v>
+        <v>1225</v>
       </c>
       <c r="C1286">
         <v>4</v>
@@ -18884,7 +18869,7 @@
         <v>43232</v>
       </c>
       <c r="B1287" t="s">
-        <v>1236</v>
+        <v>1226</v>
       </c>
       <c r="C1287">
         <v>5</v>
@@ -18895,7 +18880,7 @@
         <v>43232</v>
       </c>
       <c r="B1288" t="s">
-        <v>1237</v>
+        <v>1227</v>
       </c>
       <c r="C1288">
         <v>4</v>
@@ -18906,7 +18891,7 @@
         <v>43232</v>
       </c>
       <c r="B1289" t="s">
-        <v>1238</v>
+        <v>1228</v>
       </c>
       <c r="C1289">
         <v>5</v>
@@ -18917,7 +18902,7 @@
         <v>43232</v>
       </c>
       <c r="B1290" s="2" t="s">
-        <v>1239</v>
+        <v>1229</v>
       </c>
       <c r="C1290">
         <v>5</v>
@@ -18928,7 +18913,7 @@
         <v>43232</v>
       </c>
       <c r="B1291" t="s">
-        <v>1240</v>
+        <v>1230</v>
       </c>
       <c r="C1291">
         <v>5</v>
@@ -18972,7 +18957,7 @@
         <v>43231</v>
       </c>
       <c r="B1295" t="s">
-        <v>1241</v>
+        <v>1231</v>
       </c>
       <c r="C1295">
         <v>5</v>
@@ -18983,7 +18968,7 @@
         <v>43231</v>
       </c>
       <c r="B1296" t="s">
-        <v>1242</v>
+        <v>1232</v>
       </c>
       <c r="C1296">
         <v>5</v>
@@ -18994,7 +18979,7 @@
         <v>43231</v>
       </c>
       <c r="B1297" s="2" t="s">
-        <v>1243</v>
+        <v>1233</v>
       </c>
       <c r="C1297">
         <v>5</v>
@@ -19005,7 +18990,7 @@
         <v>43231</v>
       </c>
       <c r="B1298" s="2" t="s">
-        <v>1244</v>
+        <v>1234</v>
       </c>
       <c r="C1298">
         <v>5</v>
@@ -19016,7 +19001,7 @@
         <v>43231</v>
       </c>
       <c r="B1299" t="s">
-        <v>1245</v>
+        <v>1235</v>
       </c>
       <c r="C1299">
         <v>4</v>
@@ -19027,7 +19012,7 @@
         <v>43231</v>
       </c>
       <c r="B1300" t="s">
-        <v>1246</v>
+        <v>1236</v>
       </c>
       <c r="C1300">
         <v>5</v>
@@ -19038,7 +19023,7 @@
         <v>43230</v>
       </c>
       <c r="B1301" t="s">
-        <v>1247</v>
+        <v>1237</v>
       </c>
       <c r="C1301">
         <v>5</v>
@@ -19049,7 +19034,7 @@
         <v>43230</v>
       </c>
       <c r="B1302" t="s">
-        <v>1248</v>
+        <v>1238</v>
       </c>
       <c r="C1302">
         <v>5</v>
@@ -19060,7 +19045,7 @@
         <v>43230</v>
       </c>
       <c r="B1303" t="s">
-        <v>1249</v>
+        <v>1239</v>
       </c>
       <c r="C1303">
         <v>5</v>
@@ -19082,7 +19067,7 @@
         <v>43230</v>
       </c>
       <c r="B1305" t="s">
-        <v>1250</v>
+        <v>1240</v>
       </c>
       <c r="C1305">
         <v>5</v>
@@ -19115,7 +19100,7 @@
         <v>43229</v>
       </c>
       <c r="B1308" t="s">
-        <v>1251</v>
+        <v>1241</v>
       </c>
       <c r="C1308">
         <v>5</v>
@@ -19126,7 +19111,7 @@
         <v>43229</v>
       </c>
       <c r="B1309" s="2" t="s">
-        <v>1252</v>
+        <v>1242</v>
       </c>
       <c r="C1309">
         <v>5</v>
@@ -19137,7 +19122,7 @@
         <v>43229</v>
       </c>
       <c r="B1310" t="s">
-        <v>1253</v>
+        <v>1243</v>
       </c>
       <c r="C1310">
         <v>5</v>
@@ -19148,7 +19133,7 @@
         <v>43229</v>
       </c>
       <c r="B1311" s="2" t="s">
-        <v>1254</v>
+        <v>1244</v>
       </c>
       <c r="C1311">
         <v>5</v>
@@ -19192,7 +19177,7 @@
         <v>43228</v>
       </c>
       <c r="B1315" t="s">
-        <v>1255</v>
+        <v>1245</v>
       </c>
       <c r="C1315">
         <v>3</v>
@@ -19203,7 +19188,7 @@
         <v>43228</v>
       </c>
       <c r="B1316" s="2" t="s">
-        <v>1256</v>
+        <v>1246</v>
       </c>
       <c r="C1316">
         <v>5</v>
@@ -19214,7 +19199,7 @@
         <v>43228</v>
       </c>
       <c r="B1317" t="s">
-        <v>1257</v>
+        <v>1247</v>
       </c>
       <c r="C1317">
         <v>1</v>
@@ -19225,7 +19210,7 @@
         <v>43228</v>
       </c>
       <c r="B1318" t="s">
-        <v>1258</v>
+        <v>1248</v>
       </c>
       <c r="C1318">
         <v>3</v>
@@ -19236,7 +19221,7 @@
         <v>43228</v>
       </c>
       <c r="B1319" s="2" t="s">
-        <v>1259</v>
+        <v>1249</v>
       </c>
       <c r="C1319">
         <v>2</v>
@@ -19247,7 +19232,7 @@
         <v>43228</v>
       </c>
       <c r="B1320" s="2" t="s">
-        <v>1260</v>
+        <v>1250</v>
       </c>
       <c r="C1320">
         <v>3</v>
@@ -19258,7 +19243,7 @@
         <v>43228</v>
       </c>
       <c r="B1321" t="s">
-        <v>1261</v>
+        <v>1251</v>
       </c>
       <c r="C1321">
         <v>5</v>
@@ -19269,7 +19254,7 @@
         <v>43228</v>
       </c>
       <c r="B1322" t="s">
-        <v>1262</v>
+        <v>1252</v>
       </c>
       <c r="C1322">
         <v>5</v>
@@ -19280,7 +19265,7 @@
         <v>43228</v>
       </c>
       <c r="B1323" t="s">
-        <v>1263</v>
+        <v>1253</v>
       </c>
       <c r="C1323">
         <v>5</v>
@@ -19291,7 +19276,7 @@
         <v>43228</v>
       </c>
       <c r="B1324" t="s">
-        <v>1264</v>
+        <v>1254</v>
       </c>
       <c r="C1324">
         <v>5</v>
@@ -19313,7 +19298,7 @@
         <v>43227</v>
       </c>
       <c r="B1326" s="2" t="s">
-        <v>1265</v>
+        <v>1255</v>
       </c>
       <c r="C1326">
         <v>3</v>
@@ -19324,7 +19309,7 @@
         <v>43227</v>
       </c>
       <c r="B1327" t="s">
-        <v>1266</v>
+        <v>1256</v>
       </c>
       <c r="C1327">
         <v>5</v>
@@ -19335,7 +19320,7 @@
         <v>43227</v>
       </c>
       <c r="B1328" t="s">
-        <v>1267</v>
+        <v>1257</v>
       </c>
       <c r="C1328">
         <v>5</v>
@@ -19346,7 +19331,7 @@
         <v>43227</v>
       </c>
       <c r="B1329" s="2" t="s">
-        <v>1268</v>
+        <v>1258</v>
       </c>
       <c r="C1329">
         <v>5</v>
@@ -19368,7 +19353,7 @@
         <v>43226</v>
       </c>
       <c r="B1331" t="s">
-        <v>1269</v>
+        <v>1259</v>
       </c>
       <c r="C1331">
         <v>5</v>
@@ -19379,7 +19364,7 @@
         <v>43226</v>
       </c>
       <c r="B1332" s="2" t="s">
-        <v>1270</v>
+        <v>1260</v>
       </c>
       <c r="C1332">
         <v>5</v>
@@ -19390,7 +19375,7 @@
         <v>43226</v>
       </c>
       <c r="B1333" s="2" t="s">
-        <v>1271</v>
+        <v>1261</v>
       </c>
       <c r="C1333">
         <v>5</v>
@@ -19401,7 +19386,7 @@
         <v>43226</v>
       </c>
       <c r="B1334" s="2" t="s">
-        <v>1272</v>
+        <v>1262</v>
       </c>
       <c r="C1334">
         <v>5</v>
@@ -19412,7 +19397,7 @@
         <v>43226</v>
       </c>
       <c r="B1335" t="s">
-        <v>1273</v>
+        <v>1263</v>
       </c>
       <c r="C1335">
         <v>5</v>
@@ -19423,7 +19408,7 @@
         <v>43226</v>
       </c>
       <c r="B1336" s="2" t="s">
-        <v>1274</v>
+        <v>1264</v>
       </c>
       <c r="C1336">
         <v>1</v>
@@ -19434,7 +19419,7 @@
         <v>43226</v>
       </c>
       <c r="B1337" s="2" t="s">
-        <v>1275</v>
+        <v>1265</v>
       </c>
       <c r="C1337">
         <v>5</v>
@@ -19445,7 +19430,7 @@
         <v>43226</v>
       </c>
       <c r="B1338" t="s">
-        <v>1276</v>
+        <v>1266</v>
       </c>
       <c r="C1338">
         <v>2</v>
@@ -19456,7 +19441,7 @@
         <v>43226</v>
       </c>
       <c r="B1339" t="s">
-        <v>1277</v>
+        <v>1267</v>
       </c>
       <c r="C1339">
         <v>5</v>
@@ -19467,7 +19452,7 @@
         <v>43226</v>
       </c>
       <c r="B1340" t="s">
-        <v>1278</v>
+        <v>1268</v>
       </c>
       <c r="C1340">
         <v>3</v>
@@ -19500,7 +19485,7 @@
         <v>43225</v>
       </c>
       <c r="B1343" t="s">
-        <v>1279</v>
+        <v>1269</v>
       </c>
       <c r="C1343">
         <v>3</v>
@@ -19511,7 +19496,7 @@
         <v>43224</v>
       </c>
       <c r="B1344" t="s">
-        <v>1280</v>
+        <v>1270</v>
       </c>
       <c r="C1344">
         <v>5</v>
@@ -19522,7 +19507,7 @@
         <v>43224</v>
       </c>
       <c r="B1345" t="s">
-        <v>1281</v>
+        <v>1271</v>
       </c>
       <c r="C1345">
         <v>1</v>
@@ -19533,7 +19518,7 @@
         <v>43224</v>
       </c>
       <c r="B1346" s="2" t="s">
-        <v>1282</v>
+        <v>1272</v>
       </c>
       <c r="C1346">
         <v>5</v>
@@ -19544,7 +19529,7 @@
         <v>43223</v>
       </c>
       <c r="B1347" s="2" t="s">
-        <v>1283</v>
+        <v>1273</v>
       </c>
       <c r="C1347">
         <v>5</v>
@@ -19555,7 +19540,7 @@
         <v>43223</v>
       </c>
       <c r="B1348" t="s">
-        <v>1284</v>
+        <v>1274</v>
       </c>
       <c r="C1348">
         <v>5</v>
@@ -19566,7 +19551,7 @@
         <v>43223</v>
       </c>
       <c r="B1349" t="s">
-        <v>1285</v>
+        <v>1275</v>
       </c>
       <c r="C1349">
         <v>5</v>
@@ -19577,7 +19562,7 @@
         <v>43223</v>
       </c>
       <c r="B1350" t="s">
-        <v>1286</v>
+        <v>1276</v>
       </c>
       <c r="C1350">
         <v>5</v>
@@ -19588,7 +19573,7 @@
         <v>43223</v>
       </c>
       <c r="B1351" t="s">
-        <v>1287</v>
+        <v>1277</v>
       </c>
       <c r="C1351">
         <v>5</v>
@@ -19610,7 +19595,7 @@
         <v>43223</v>
       </c>
       <c r="B1353" t="s">
-        <v>1288</v>
+        <v>1278</v>
       </c>
       <c r="C1353">
         <v>5</v>
@@ -19643,7 +19628,7 @@
         <v>43222</v>
       </c>
       <c r="B1356" t="s">
-        <v>1289</v>
+        <v>1279</v>
       </c>
       <c r="C1356">
         <v>1</v>
@@ -19654,7 +19639,7 @@
         <v>43222</v>
       </c>
       <c r="B1357" t="s">
-        <v>1290</v>
+        <v>1280</v>
       </c>
       <c r="C1357">
         <v>5</v>
@@ -19665,7 +19650,7 @@
         <v>43222</v>
       </c>
       <c r="B1358" t="s">
-        <v>1291</v>
+        <v>1281</v>
       </c>
       <c r="C1358">
         <v>5</v>
@@ -19687,7 +19672,7 @@
         <v>43222</v>
       </c>
       <c r="B1360" t="s">
-        <v>1292</v>
+        <v>1282</v>
       </c>
       <c r="C1360">
         <v>5</v>
@@ -19698,7 +19683,7 @@
         <v>43221</v>
       </c>
       <c r="B1361" t="s">
-        <v>1293</v>
+        <v>1283</v>
       </c>
       <c r="C1361">
         <v>5</v>
@@ -19709,7 +19694,7 @@
         <v>43221</v>
       </c>
       <c r="B1362" s="2" t="s">
-        <v>1294</v>
+        <v>1284</v>
       </c>
       <c r="C1362">
         <v>5</v>
@@ -19720,7 +19705,7 @@
         <v>43221</v>
       </c>
       <c r="B1363" t="s">
-        <v>1295</v>
+        <v>1285</v>
       </c>
       <c r="C1363">
         <v>4</v>
@@ -19731,7 +19716,7 @@
         <v>43221</v>
       </c>
       <c r="B1364" t="s">
-        <v>1296</v>
+        <v>1286</v>
       </c>
       <c r="C1364">
         <v>5</v>
@@ -19742,7 +19727,7 @@
         <v>43221</v>
       </c>
       <c r="B1365" t="s">
-        <v>1297</v>
+        <v>1287</v>
       </c>
       <c r="C1365">
         <v>5</v>
@@ -19753,7 +19738,7 @@
         <v>43221</v>
       </c>
       <c r="B1366" t="s">
-        <v>1298</v>
+        <v>1288</v>
       </c>
       <c r="C1366">
         <v>5</v>
@@ -19764,7 +19749,7 @@
         <v>43221</v>
       </c>
       <c r="B1367" t="s">
-        <v>1299</v>
+        <v>1289</v>
       </c>
       <c r="C1367">
         <v>5</v>
@@ -19775,7 +19760,7 @@
         <v>43221</v>
       </c>
       <c r="B1368" s="2" t="s">
-        <v>1300</v>
+        <v>1341</v>
       </c>
       <c r="C1368">
         <v>5</v>
@@ -19786,7 +19771,7 @@
         <v>43221</v>
       </c>
       <c r="B1369" s="2" t="s">
-        <v>1301</v>
+        <v>1290</v>
       </c>
       <c r="C1369">
         <v>5</v>
@@ -19797,7 +19782,7 @@
         <v>43221</v>
       </c>
       <c r="B1370" t="s">
-        <v>1302</v>
+        <v>1291</v>
       </c>
       <c r="C1370">
         <v>5</v>
@@ -19808,7 +19793,7 @@
         <v>43221</v>
       </c>
       <c r="B1371" t="s">
-        <v>1303</v>
+        <v>1292</v>
       </c>
       <c r="C1371">
         <v>5</v>
@@ -19819,7 +19804,7 @@
         <v>43221</v>
       </c>
       <c r="B1372" t="s">
-        <v>1304</v>
+        <v>1293</v>
       </c>
       <c r="C1372">
         <v>4</v>
@@ -19830,7 +19815,7 @@
         <v>43221</v>
       </c>
       <c r="B1373" t="s">
-        <v>1305</v>
+        <v>1294</v>
       </c>
       <c r="C1373">
         <v>5</v>
@@ -19852,7 +19837,7 @@
         <v>43220</v>
       </c>
       <c r="B1375" t="s">
-        <v>1306</v>
+        <v>1295</v>
       </c>
       <c r="C1375">
         <v>5</v>
@@ -19863,7 +19848,7 @@
         <v>43220</v>
       </c>
       <c r="B1376" s="2" t="s">
-        <v>1307</v>
+        <v>1296</v>
       </c>
       <c r="C1376">
         <v>5</v>
@@ -19874,7 +19859,7 @@
         <v>43220</v>
       </c>
       <c r="B1377" s="2" t="s">
-        <v>1308</v>
+        <v>1342</v>
       </c>
       <c r="C1377">
         <v>5</v>
@@ -19885,7 +19870,7 @@
         <v>43220</v>
       </c>
       <c r="B1378" s="2" t="s">
-        <v>1309</v>
+        <v>1297</v>
       </c>
       <c r="C1378">
         <v>5</v>
@@ -19896,7 +19881,7 @@
         <v>43220</v>
       </c>
       <c r="B1379" t="s">
-        <v>1310</v>
+        <v>1298</v>
       </c>
       <c r="C1379">
         <v>3</v>
@@ -19907,7 +19892,7 @@
         <v>43220</v>
       </c>
       <c r="B1380" t="s">
-        <v>1311</v>
+        <v>1299</v>
       </c>
       <c r="C1380">
         <v>4</v>
@@ -19918,7 +19903,7 @@
         <v>43220</v>
       </c>
       <c r="B1381" s="2" t="s">
-        <v>1312</v>
+        <v>1300</v>
       </c>
       <c r="C1381">
         <v>5</v>
@@ -19929,7 +19914,7 @@
         <v>43220</v>
       </c>
       <c r="B1382" s="2" t="s">
-        <v>1313</v>
+        <v>1301</v>
       </c>
       <c r="C1382">
         <v>5</v>
@@ -19940,7 +19925,7 @@
         <v>43219</v>
       </c>
       <c r="B1383" t="s">
-        <v>1314</v>
+        <v>1302</v>
       </c>
       <c r="C1383">
         <v>5</v>
@@ -19951,7 +19936,7 @@
         <v>43219</v>
       </c>
       <c r="B1384" s="2" t="s">
-        <v>1315</v>
+        <v>1303</v>
       </c>
       <c r="C1384">
         <v>5</v>
@@ -19962,7 +19947,7 @@
         <v>43219</v>
       </c>
       <c r="B1385" t="s">
-        <v>1316</v>
+        <v>1304</v>
       </c>
       <c r="C1385">
         <v>4</v>
@@ -19973,7 +19958,7 @@
         <v>43219</v>
       </c>
       <c r="B1386" t="s">
-        <v>1317</v>
+        <v>1305</v>
       </c>
       <c r="C1386">
         <v>5</v>
@@ -19984,7 +19969,7 @@
         <v>43219</v>
       </c>
       <c r="B1387" t="s">
-        <v>1318</v>
+        <v>1306</v>
       </c>
       <c r="C1387">
         <v>4</v>
@@ -19995,7 +19980,7 @@
         <v>43219</v>
       </c>
       <c r="B1388" t="s">
-        <v>1319</v>
+        <v>1307</v>
       </c>
       <c r="C1388">
         <v>5</v>
@@ -20006,7 +19991,7 @@
         <v>43219</v>
       </c>
       <c r="B1389" s="2" t="s">
-        <v>1320</v>
+        <v>1308</v>
       </c>
       <c r="C1389">
         <v>3</v>
@@ -20017,7 +20002,7 @@
         <v>43219</v>
       </c>
       <c r="B1390" t="s">
-        <v>1321</v>
+        <v>1309</v>
       </c>
       <c r="C1390">
         <v>5</v>
@@ -20028,7 +20013,7 @@
         <v>43219</v>
       </c>
       <c r="B1391" s="2" t="s">
-        <v>1322</v>
+        <v>1310</v>
       </c>
       <c r="C1391">
         <v>5</v>
@@ -20039,7 +20024,7 @@
         <v>43219</v>
       </c>
       <c r="B1392" t="s">
-        <v>1323</v>
+        <v>1311</v>
       </c>
       <c r="C1392">
         <v>1</v>
@@ -20050,7 +20035,7 @@
         <v>43219</v>
       </c>
       <c r="B1393" t="s">
-        <v>1324</v>
+        <v>1312</v>
       </c>
       <c r="C1393">
         <v>5</v>
@@ -20061,7 +20046,7 @@
         <v>43219</v>
       </c>
       <c r="B1394" t="s">
-        <v>1325</v>
+        <v>1313</v>
       </c>
       <c r="C1394">
         <v>4</v>
@@ -20072,7 +20057,7 @@
         <v>43218</v>
       </c>
       <c r="B1395" s="2" t="s">
-        <v>1326</v>
+        <v>1314</v>
       </c>
       <c r="C1395">
         <v>2</v>
@@ -20083,7 +20068,7 @@
         <v>43218</v>
       </c>
       <c r="B1396" t="s">
-        <v>1327</v>
+        <v>1315</v>
       </c>
       <c r="C1396">
         <v>5</v>
@@ -20094,7 +20079,7 @@
         <v>43218</v>
       </c>
       <c r="B1397" t="s">
-        <v>1328</v>
+        <v>1316</v>
       </c>
       <c r="C1397">
         <v>5</v>
@@ -20105,7 +20090,7 @@
         <v>43218</v>
       </c>
       <c r="B1398" t="s">
-        <v>1329</v>
+        <v>1317</v>
       </c>
       <c r="C1398">
         <v>5</v>
@@ -20116,7 +20101,7 @@
         <v>43218</v>
       </c>
       <c r="B1399" t="s">
-        <v>1330</v>
+        <v>1318</v>
       </c>
       <c r="C1399">
         <v>5</v>
@@ -20127,7 +20112,7 @@
         <v>43217</v>
       </c>
       <c r="B1400" t="s">
-        <v>1331</v>
+        <v>1319</v>
       </c>
       <c r="C1400">
         <v>5</v>
@@ -20138,7 +20123,7 @@
         <v>43217</v>
       </c>
       <c r="B1401" s="2" t="s">
-        <v>1332</v>
+        <v>1343</v>
       </c>
       <c r="C1401">
         <v>5</v>
@@ -20149,7 +20134,7 @@
         <v>43217</v>
       </c>
       <c r="B1402" t="s">
-        <v>1333</v>
+        <v>1320</v>
       </c>
       <c r="C1402">
         <v>5</v>
@@ -20270,7 +20255,7 @@
         <v>43188</v>
       </c>
       <c r="B1413" t="s">
-        <v>1334</v>
+        <v>1321</v>
       </c>
       <c r="C1413">
         <v>3</v>
@@ -20380,7 +20365,7 @@
         <v>43180</v>
       </c>
       <c r="B1423" t="s">
-        <v>1335</v>
+        <v>1322</v>
       </c>
       <c r="C1423">
         <v>1</v>
@@ -20567,7 +20552,7 @@
         <v>43152</v>
       </c>
       <c r="B1440" t="s">
-        <v>1336</v>
+        <v>1323</v>
       </c>
       <c r="C1440">
         <v>1</v>
@@ -20622,7 +20607,7 @@
         <v>43143</v>
       </c>
       <c r="B1445" t="s">
-        <v>1337</v>
+        <v>1324</v>
       </c>
       <c r="C1445">
         <v>1</v>
@@ -20765,7 +20750,7 @@
         <v>43115</v>
       </c>
       <c r="B1458" t="s">
-        <v>1338</v>
+        <v>1325</v>
       </c>
       <c r="C1458">
         <v>5</v>
@@ -20820,7 +20805,7 @@
         <v>43110</v>
       </c>
       <c r="B1463" t="s">
-        <v>1339</v>
+        <v>1326</v>
       </c>
       <c r="C1463">
         <v>5</v>
@@ -20853,7 +20838,7 @@
         <v>43107</v>
       </c>
       <c r="B1466" t="s">
-        <v>1340</v>
+        <v>1327</v>
       </c>
       <c r="C1466">
         <v>1</v>
@@ -20875,7 +20860,7 @@
         <v>43105</v>
       </c>
       <c r="B1468" s="2" t="s">
-        <v>1341</v>
+        <v>1328</v>
       </c>
       <c r="C1468">
         <v>4</v>
@@ -20919,7 +20904,7 @@
         <v>43104</v>
       </c>
       <c r="B1472" t="s">
-        <v>1342</v>
+        <v>1329</v>
       </c>
       <c r="C1472">
         <v>1</v>
@@ -20930,7 +20915,7 @@
         <v>43103</v>
       </c>
       <c r="B1473" s="2" t="s">
-        <v>1343</v>
+        <v>1330</v>
       </c>
       <c r="C1473">
         <v>1</v>
@@ -24256,5 +24241,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>